--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4552,28 +4552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.2963065407555</v>
+        <v>271.925921113067</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.4191253960487</v>
+        <v>372.0610417918666</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.6521071127383</v>
+        <v>336.5520581542019</v>
       </c>
       <c r="AD2" t="n">
-        <v>220296.3065407555</v>
+        <v>271925.921113067</v>
       </c>
       <c r="AE2" t="n">
-        <v>301419.1253960487</v>
+        <v>372061.0417918666</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.658953764861409e-06</v>
+        <v>3.833319021853557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.42939814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>272652.1071127383</v>
+        <v>336552.0581542018</v>
       </c>
     </row>
     <row r="3">
@@ -4658,28 +4658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.9473315494135</v>
+        <v>184.5661435859186</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.1645542352057</v>
+        <v>252.5315401377258</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.5839371293165</v>
+        <v>228.4302843772973</v>
       </c>
       <c r="AD3" t="n">
-        <v>149947.3315494135</v>
+        <v>184566.1435859186</v>
       </c>
       <c r="AE3" t="n">
-        <v>205164.5542352058</v>
+        <v>252531.5401377258</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.553919715344398e-06</v>
+        <v>5.123559584602308e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.55324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>185583.9371293165</v>
+        <v>228430.2843772973</v>
       </c>
     </row>
     <row r="4">
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.9351471651617</v>
+        <v>164.4686183470952</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.7830006854214</v>
+        <v>225.0332194657438</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.815640620063</v>
+        <v>203.5563648361051</v>
       </c>
       <c r="AD4" t="n">
-        <v>129935.1471651617</v>
+        <v>164468.6183470952</v>
       </c>
       <c r="AE4" t="n">
-        <v>177783.0006854214</v>
+        <v>225033.2194657438</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.932419780195692e-06</v>
+        <v>5.669229658877893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.731481481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>160815.6406200631</v>
+        <v>203556.3648361051</v>
       </c>
     </row>
     <row r="5">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.0249506131191</v>
+        <v>160.3878295944604</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.4328972572223</v>
+        <v>219.4497042626978</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.9761435541322</v>
+        <v>198.5057324875232</v>
       </c>
       <c r="AD5" t="n">
-        <v>126024.9506131191</v>
+        <v>160387.8295944604</v>
       </c>
       <c r="AE5" t="n">
-        <v>172432.8972572223</v>
+        <v>219449.7042626978</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.088189336508851e-06</v>
+        <v>5.893797085033212e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.436342592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>155976.1435541323</v>
+        <v>198505.7324875232</v>
       </c>
     </row>
     <row r="6">
@@ -4976,28 +4976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.1782169433168</v>
+        <v>148.078409838318</v>
       </c>
       <c r="AB6" t="n">
-        <v>167.1696265442892</v>
+        <v>202.6074130990794</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.215192010993</v>
+        <v>183.2708459542511</v>
       </c>
       <c r="AD6" t="n">
-        <v>122178.2169433168</v>
+        <v>148078.409838318</v>
       </c>
       <c r="AE6" t="n">
-        <v>167169.6265442892</v>
+        <v>202607.4130990794</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.233927879586739e-06</v>
+        <v>6.103903156368684e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.175925925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>151215.192010993</v>
+        <v>183270.8459542511</v>
       </c>
     </row>
     <row r="7">
@@ -5082,28 +5082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>121.244516416715</v>
+        <v>147.1447093117162</v>
       </c>
       <c r="AB7" t="n">
-        <v>165.8920962918333</v>
+        <v>201.3298828466234</v>
       </c>
       <c r="AC7" t="n">
-        <v>150.0595874528061</v>
+        <v>182.1152413960641</v>
       </c>
       <c r="AD7" t="n">
-        <v>121244.5164167151</v>
+        <v>147144.7093117162</v>
       </c>
       <c r="AE7" t="n">
-        <v>165892.0962918333</v>
+        <v>201329.8828466234</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.273841858952215e-06</v>
+        <v>6.16144572004975e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.112268518518518</v>
       </c>
       <c r="AH7" t="n">
-        <v>150059.5874528061</v>
+        <v>182115.2413960641</v>
       </c>
     </row>
     <row r="8">
@@ -5188,28 +5188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>110.7799529527434</v>
+        <v>145.2280832801053</v>
       </c>
       <c r="AB8" t="n">
-        <v>151.574018896477</v>
+        <v>198.7074705546017</v>
       </c>
       <c r="AC8" t="n">
-        <v>137.1080072685102</v>
+        <v>179.7431084526134</v>
       </c>
       <c r="AD8" t="n">
-        <v>110779.9529527434</v>
+        <v>145228.0832801053</v>
       </c>
       <c r="AE8" t="n">
-        <v>151574.018896477</v>
+        <v>198707.4705546018</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.342378362994249e-06</v>
+        <v>6.260252359002108e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.996527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>137108.0072685102</v>
+        <v>179743.1084526134</v>
       </c>
     </row>
     <row r="9">
@@ -5294,28 +5294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>108.8412424210427</v>
+        <v>143.2893727484045</v>
       </c>
       <c r="AB9" t="n">
-        <v>148.9213896171331</v>
+        <v>196.0548412752579</v>
       </c>
       <c r="AC9" t="n">
-        <v>134.7085412045975</v>
+        <v>177.3436423887007</v>
       </c>
       <c r="AD9" t="n">
-        <v>108841.2424210427</v>
+        <v>143289.3727484045</v>
       </c>
       <c r="AE9" t="n">
-        <v>148921.3896171331</v>
+        <v>196054.8412752579</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.410442201491166e-06</v>
+        <v>6.358377572858242e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.892361111111112</v>
       </c>
       <c r="AH9" t="n">
-        <v>134708.5412045975</v>
+        <v>177343.6423887007</v>
       </c>
     </row>
     <row r="10">
@@ -5400,28 +5400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>108.3709209327468</v>
+        <v>142.8190512601087</v>
       </c>
       <c r="AB10" t="n">
-        <v>148.2778750077274</v>
+        <v>195.4113266658522</v>
       </c>
       <c r="AC10" t="n">
-        <v>134.1264427263348</v>
+        <v>176.761543910438</v>
       </c>
       <c r="AD10" t="n">
-        <v>108370.9209327468</v>
+        <v>142819.0512601087</v>
       </c>
       <c r="AE10" t="n">
-        <v>148277.8750077274</v>
+        <v>195411.3266658522</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.425199870177612e-06</v>
+        <v>6.37965317864032e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.869212962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>134126.4427263348</v>
+        <v>176761.543910438</v>
       </c>
     </row>
     <row r="11">
@@ -5506,28 +5506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>107.372326936474</v>
+        <v>141.8204572638359</v>
       </c>
       <c r="AB11" t="n">
-        <v>146.9115546471698</v>
+        <v>194.0450063052946</v>
       </c>
       <c r="AC11" t="n">
-        <v>132.8905220633457</v>
+        <v>175.5256232474489</v>
       </c>
       <c r="AD11" t="n">
-        <v>107372.326936474</v>
+        <v>141820.4572638359</v>
       </c>
       <c r="AE11" t="n">
-        <v>146911.5546471698</v>
+        <v>194045.0063052946</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.448097889918858e-06</v>
+        <v>6.412664438857353e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.834490740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>132890.5220633457</v>
+        <v>175525.6232474489</v>
       </c>
     </row>
     <row r="12">
@@ -5612,28 +5612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>106.597735045394</v>
+        <v>141.0458653727558</v>
       </c>
       <c r="AB12" t="n">
-        <v>145.8517238492121</v>
+        <v>192.9851755073369</v>
       </c>
       <c r="AC12" t="n">
-        <v>131.9318400292629</v>
+        <v>174.5669412133661</v>
       </c>
       <c r="AD12" t="n">
-        <v>106597.735045394</v>
+        <v>141045.8653727558</v>
       </c>
       <c r="AE12" t="n">
-        <v>145851.7238492121</v>
+        <v>192985.1755073369</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.468475026752812e-06</v>
+        <v>6.442041431894529e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.799768518518519</v>
       </c>
       <c r="AH12" t="n">
-        <v>131931.8400292629</v>
+        <v>174566.9412133661</v>
       </c>
     </row>
     <row r="13">
@@ -5718,28 +5718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>106.0359552349737</v>
+        <v>140.4840855623356</v>
       </c>
       <c r="AB13" t="n">
-        <v>145.0830719286194</v>
+        <v>192.2165235867442</v>
       </c>
       <c r="AC13" t="n">
-        <v>131.2365471691616</v>
+        <v>173.8716483532648</v>
       </c>
       <c r="AD13" t="n">
-        <v>106035.9552349737</v>
+        <v>140484.0855623356</v>
       </c>
       <c r="AE13" t="n">
-        <v>145083.0719286194</v>
+        <v>192216.5235867442</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.462382893060187e-06</v>
+        <v>6.433258619543209e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.811342592592593</v>
       </c>
       <c r="AH13" t="n">
-        <v>131236.5471691616</v>
+        <v>173871.6483532648</v>
       </c>
     </row>
     <row r="14">
@@ -5824,28 +5824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>105.1273709718543</v>
+        <v>139.5755012992162</v>
       </c>
       <c r="AB14" t="n">
-        <v>143.8399068559115</v>
+        <v>190.9733585140362</v>
       </c>
       <c r="AC14" t="n">
-        <v>130.1120280261994</v>
+        <v>172.7471292103026</v>
       </c>
       <c r="AD14" t="n">
-        <v>105127.3709718544</v>
+        <v>139575.5012992162</v>
       </c>
       <c r="AE14" t="n">
-        <v>143839.9068559115</v>
+        <v>190973.3585140363</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.486278762285569e-06</v>
+        <v>6.467708443852267e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.776620370370371</v>
       </c>
       <c r="AH14" t="n">
-        <v>130112.0280261994</v>
+        <v>172747.1292103026</v>
       </c>
     </row>
     <row r="15">
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>103.476440640922</v>
+        <v>137.9245709682839</v>
       </c>
       <c r="AB15" t="n">
-        <v>141.5810311432251</v>
+        <v>188.7144828013499</v>
       </c>
       <c r="AC15" t="n">
-        <v>128.0687362411791</v>
+        <v>170.7038374252823</v>
       </c>
       <c r="AD15" t="n">
-        <v>103476.440640922</v>
+        <v>137924.5709682839</v>
       </c>
       <c r="AE15" t="n">
-        <v>141581.0311432251</v>
+        <v>188714.4828013499</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.530026584405888e-06</v>
+        <v>6.530778122202699e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.707175925925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>128068.7362411791</v>
+        <v>170703.8374252823</v>
       </c>
     </row>
     <row r="16">
@@ -6036,28 +6036,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>103.59182766503</v>
+        <v>138.0399579923919</v>
       </c>
       <c r="AB16" t="n">
-        <v>141.7389087601259</v>
+        <v>188.8723604182507</v>
       </c>
       <c r="AC16" t="n">
-        <v>128.2115462399055</v>
+        <v>170.8466474240088</v>
       </c>
       <c r="AD16" t="n">
-        <v>103591.82766503</v>
+        <v>138039.9579923919</v>
       </c>
       <c r="AE16" t="n">
-        <v>141738.9087601259</v>
+        <v>188872.3604182507</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.530289176375397e-06</v>
+        <v>6.531156691700601e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.707175925925926</v>
       </c>
       <c r="AH16" t="n">
-        <v>128211.5462399055</v>
+        <v>170846.6474240088</v>
       </c>
     </row>
     <row r="17">
@@ -6142,28 +6142,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>103.6369842379365</v>
+        <v>138.0851145652984</v>
       </c>
       <c r="AB17" t="n">
-        <v>141.8006939753439</v>
+        <v>188.9341456334686</v>
       </c>
       <c r="AC17" t="n">
-        <v>128.2674347608992</v>
+        <v>170.9025359450025</v>
       </c>
       <c r="AD17" t="n">
-        <v>103636.9842379365</v>
+        <v>138085.1145652984</v>
       </c>
       <c r="AE17" t="n">
-        <v>141800.6939753439</v>
+        <v>188934.1456334686</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.528556069376633e-06</v>
+        <v>6.528658133014449e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.712962962962963</v>
       </c>
       <c r="AH17" t="n">
-        <v>128267.4347608992</v>
+        <v>170902.5359450025</v>
       </c>
     </row>
   </sheetData>
@@ -6439,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.8855944730116</v>
+        <v>220.8874609020056</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.7591622333105</v>
+        <v>302.2279688730005</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.3996913114761</v>
+        <v>273.383755703469</v>
       </c>
       <c r="AD2" t="n">
-        <v>178885.5944730116</v>
+        <v>220887.4609020056</v>
       </c>
       <c r="AE2" t="n">
-        <v>244759.1622333105</v>
+        <v>302227.9688730005</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.134108388338162e-06</v>
+        <v>4.588216778651337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>221399.6913114761</v>
+        <v>273383.755703469</v>
       </c>
     </row>
     <row r="3">
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.7138798451048</v>
+        <v>167.6303159109761</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.0072765089516</v>
+        <v>229.3591935568956</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.5911434527139</v>
+        <v>207.4694740315416</v>
       </c>
       <c r="AD3" t="n">
-        <v>125713.8798451048</v>
+        <v>167630.3159109761</v>
       </c>
       <c r="AE3" t="n">
-        <v>172007.2765089516</v>
+        <v>229359.1935568956</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.950138134950729e-06</v>
+        <v>5.782853629507562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.957175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>155591.1434527139</v>
+        <v>207469.4740315416</v>
       </c>
     </row>
     <row r="4">
@@ -6651,28 +6651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.5541633403626</v>
+        <v>141.8065235139223</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.4745482889973</v>
+        <v>194.0259415339492</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.2545212242735</v>
+        <v>175.5083779911232</v>
       </c>
       <c r="AD4" t="n">
-        <v>116554.1633403626</v>
+        <v>141806.5235139224</v>
       </c>
       <c r="AE4" t="n">
-        <v>159474.5482889973</v>
+        <v>194025.9415339492</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.335171611265194e-06</v>
+        <v>6.346528154275743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.251157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>144254.5212242735</v>
+        <v>175508.3779911232</v>
       </c>
     </row>
     <row r="5">
@@ -6757,28 +6757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.3194246508838</v>
+        <v>139.5717848244436</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.4168802243411</v>
+        <v>190.968273469293</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.488672708243</v>
+        <v>172.7425294750927</v>
       </c>
       <c r="AD5" t="n">
-        <v>114319.4246508838</v>
+        <v>139571.7848244436</v>
       </c>
       <c r="AE5" t="n">
-        <v>156416.8802243411</v>
+        <v>190968.273469293</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.446275528164176e-06</v>
+        <v>6.509180109002839e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.07175925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>141488.672708243</v>
+        <v>172742.5294750927</v>
       </c>
     </row>
     <row r="6">
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.8888765179504</v>
+        <v>137.4732298833904</v>
       </c>
       <c r="AB6" t="n">
-        <v>142.1453441055618</v>
+        <v>188.0969380172356</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.5791919664088</v>
+        <v>170.1452302486341</v>
       </c>
       <c r="AD6" t="n">
-        <v>103888.8765179504</v>
+        <v>137473.2298833904</v>
       </c>
       <c r="AE6" t="n">
-        <v>142145.3441055618</v>
+        <v>188096.9380172356</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.529019423243466e-06</v>
+        <v>6.630314058660232e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.944444444444446</v>
       </c>
       <c r="AH6" t="n">
-        <v>128579.1919664088</v>
+        <v>170145.2302486341</v>
       </c>
     </row>
     <row r="7">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.1354846028446</v>
+        <v>135.7198379682847</v>
       </c>
       <c r="AB7" t="n">
-        <v>139.7462759331234</v>
+        <v>185.6978698447972</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.4090874932338</v>
+        <v>167.9751257754592</v>
       </c>
       <c r="AD7" t="n">
-        <v>102135.4846028446</v>
+        <v>135719.8379682847</v>
       </c>
       <c r="AE7" t="n">
-        <v>139746.2759331234</v>
+        <v>185697.8698447972</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.598995875549524e-06</v>
+        <v>6.732756952395439e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.834490740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>126409.0874932338</v>
+        <v>167975.1257754592</v>
       </c>
     </row>
     <row r="8">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>100.7755181760944</v>
+        <v>134.3598715415345</v>
       </c>
       <c r="AB8" t="n">
-        <v>137.8855098705604</v>
+        <v>183.8371037822341</v>
       </c>
       <c r="AC8" t="n">
-        <v>124.7259103320796</v>
+        <v>166.291948614305</v>
       </c>
       <c r="AD8" t="n">
-        <v>100775.5181760944</v>
+        <v>134359.8715415345</v>
       </c>
       <c r="AE8" t="n">
-        <v>137885.5098705604</v>
+        <v>183837.1037822341</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.644524033183434e-06</v>
+        <v>6.799408462449868e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>124725.9103320796</v>
+        <v>166291.948614305</v>
       </c>
     </row>
     <row r="9">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>100.1336916487718</v>
+        <v>133.7180450142118</v>
       </c>
       <c r="AB9" t="n">
-        <v>137.0073345004899</v>
+        <v>182.9589284121637</v>
       </c>
       <c r="AC9" t="n">
-        <v>123.9315467868016</v>
+        <v>165.4975850690269</v>
       </c>
       <c r="AD9" t="n">
-        <v>100133.6916487718</v>
+        <v>133718.0450142118</v>
       </c>
       <c r="AE9" t="n">
-        <v>137007.3345004899</v>
+        <v>182958.9284121637</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.649522351205295e-06</v>
+        <v>6.806725812002381e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.75925925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>123931.5467868016</v>
+        <v>165497.5850690269</v>
       </c>
     </row>
     <row r="10">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>98.88451954165892</v>
+        <v>132.468872907099</v>
       </c>
       <c r="AB10" t="n">
-        <v>135.2981621139551</v>
+        <v>181.2497560256289</v>
       </c>
       <c r="AC10" t="n">
-        <v>122.3854954139985</v>
+        <v>163.9515336962239</v>
       </c>
       <c r="AD10" t="n">
-        <v>98884.51954165891</v>
+        <v>132468.872907099</v>
       </c>
       <c r="AE10" t="n">
-        <v>135298.1621139551</v>
+        <v>181249.7560256289</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.683804293290018e-06</v>
+        <v>6.856913285563653e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.712962962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>122385.4954139985</v>
+        <v>163951.5336962239</v>
       </c>
     </row>
     <row r="11">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>97.235087584336</v>
+        <v>130.819440949776</v>
       </c>
       <c r="AB11" t="n">
-        <v>133.0413365421448</v>
+        <v>178.9929304538185</v>
       </c>
       <c r="AC11" t="n">
-        <v>120.3440581072865</v>
+        <v>161.9100963895119</v>
       </c>
       <c r="AD11" t="n">
-        <v>97235.087584336</v>
+        <v>130819.440949776</v>
       </c>
       <c r="AE11" t="n">
-        <v>133041.3365421448</v>
+        <v>178992.9304538185</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.71781458765616e-06</v>
+        <v>6.906703077084025e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>120344.0581072865</v>
+        <v>161910.0963895119</v>
       </c>
     </row>
     <row r="12">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>96.53220467734636</v>
+        <v>130.1165580427864</v>
       </c>
       <c r="AB12" t="n">
-        <v>132.0796211397966</v>
+        <v>178.0312150514704</v>
       </c>
       <c r="AC12" t="n">
-        <v>119.4741274731621</v>
+        <v>161.0401657553875</v>
       </c>
       <c r="AD12" t="n">
-        <v>96532.20467734635</v>
+        <v>130116.5580427864</v>
       </c>
       <c r="AE12" t="n">
-        <v>132079.6211397966</v>
+        <v>178031.2150514704</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.756714540956733e-06</v>
+        <v>6.963651145340553e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.608796296296297</v>
       </c>
       <c r="AH12" t="n">
-        <v>119474.1274731621</v>
+        <v>161040.1657553875</v>
       </c>
     </row>
   </sheetData>
@@ -7796,28 +7796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.96059006725295</v>
+        <v>129.8591528036197</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.4022451630675</v>
+        <v>177.6790218473251</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.4796449229852</v>
+        <v>160.7215853763394</v>
       </c>
       <c r="AD2" t="n">
-        <v>98960.59006725295</v>
+        <v>129859.1528036197</v>
       </c>
       <c r="AE2" t="n">
-        <v>135402.2451630675</v>
+        <v>177679.0218473251</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.695257037784212e-06</v>
+        <v>7.264142186715379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.471064814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>122479.6449229852</v>
+        <v>160721.5853763394</v>
       </c>
     </row>
     <row r="3">
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.68293102216066</v>
+        <v>115.666745104548</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.8669221717201</v>
+        <v>158.2603435086269</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.8087457399277</v>
+        <v>143.1561984439942</v>
       </c>
       <c r="AD3" t="n">
-        <v>84682.93102216066</v>
+        <v>115666.745104548</v>
       </c>
       <c r="AE3" t="n">
-        <v>115866.9221717201</v>
+        <v>158260.3435086269</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.149632839901639e-06</v>
+        <v>7.967117637520835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.811342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>104808.7457399277</v>
+        <v>143156.1984439942</v>
       </c>
     </row>
     <row r="4">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.02358940017648</v>
+        <v>104.4107964574673</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.8600495257652</v>
+        <v>142.8594579922912</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.2797219921114</v>
+        <v>129.2251518260541</v>
       </c>
       <c r="AD4" t="n">
-        <v>81023.58940017648</v>
+        <v>104410.7964574673</v>
       </c>
       <c r="AE4" t="n">
-        <v>110860.0495257653</v>
+        <v>142859.4579922912</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.380670355828193e-06</v>
+        <v>8.324561192293296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.52199074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>100279.7219921114</v>
+        <v>129225.1518260541</v>
       </c>
     </row>
     <row r="5">
@@ -8114,28 +8114,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.90328119336002</v>
+        <v>104.2904882506509</v>
       </c>
       <c r="AB5" t="n">
-        <v>110.6954385295755</v>
+        <v>142.6948469961015</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.130821238365</v>
+        <v>129.0762510723077</v>
       </c>
       <c r="AD5" t="n">
-        <v>80903.28119336002</v>
+        <v>104290.4882506509</v>
       </c>
       <c r="AE5" t="n">
-        <v>110695.4385295755</v>
+        <v>142694.8469961015</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.382913438507091e-06</v>
+        <v>8.328031518067787e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.516203703703703</v>
       </c>
       <c r="AH5" t="n">
-        <v>100130.821238365</v>
+        <v>129076.2510723077</v>
       </c>
     </row>
   </sheetData>
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.5060188604356</v>
+        <v>156.5066295613929</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.3546278226623</v>
+        <v>214.1392751509967</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.0962212375365</v>
+        <v>193.7021232770072</v>
       </c>
       <c r="AD2" t="n">
-        <v>124506.0188604356</v>
+        <v>156506.6295613929</v>
       </c>
       <c r="AE2" t="n">
-        <v>170354.6278226623</v>
+        <v>214139.2751509967</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.023942266967699e-06</v>
+        <v>6.081359677416767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.33912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>154096.2212375365</v>
+        <v>193702.1232770072</v>
       </c>
     </row>
     <row r="3">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.5133901387663</v>
+        <v>127.5778761825507</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.6315870762724</v>
+        <v>174.5576785315585</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.1144671869321</v>
+        <v>157.8981386857958</v>
       </c>
       <c r="AD3" t="n">
-        <v>103513.3901387663</v>
+        <v>127577.8761825507</v>
       </c>
       <c r="AE3" t="n">
-        <v>141631.5870762724</v>
+        <v>174557.6785315585</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.698968412729381e-06</v>
+        <v>7.101522620045313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.141203703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>128114.4671869321</v>
+        <v>157898.1386857958</v>
       </c>
     </row>
     <row r="4">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.28612453792067</v>
+        <v>123.2866457303269</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.9017028523165</v>
+        <v>168.6862277111026</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.9812596327652</v>
+        <v>152.5870508910093</v>
       </c>
       <c r="AD4" t="n">
-        <v>91286.12453792067</v>
+        <v>123286.6457303269</v>
       </c>
       <c r="AE4" t="n">
-        <v>124901.7028523165</v>
+        <v>168686.2277111026</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.943251437555244e-06</v>
+        <v>7.470706082056778e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.788194444444446</v>
       </c>
       <c r="AH4" t="n">
-        <v>112981.2596327652</v>
+        <v>152587.0508910093</v>
       </c>
     </row>
     <row r="5">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.35648570387862</v>
+        <v>112.5062230936837</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.8932417530386</v>
+        <v>153.935977860974</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.3553604348907</v>
+        <v>139.2445441844666</v>
       </c>
       <c r="AD5" t="n">
-        <v>88356.48570387861</v>
+        <v>112506.2230936837</v>
       </c>
       <c r="AE5" t="n">
-        <v>120893.2417530386</v>
+        <v>153935.977860974</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.097755231034848e-06</v>
+        <v>7.704206733243515e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.585648148148149</v>
       </c>
       <c r="AH5" t="n">
-        <v>109355.3604348907</v>
+        <v>139244.5441844666</v>
       </c>
     </row>
     <row r="6">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.91810219378328</v>
+        <v>111.0678395835884</v>
       </c>
       <c r="AB6" t="n">
-        <v>118.9251819775253</v>
+        <v>151.9679180854607</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.5751295221624</v>
+        <v>137.4643132717384</v>
       </c>
       <c r="AD6" t="n">
-        <v>86918.10219378328</v>
+        <v>111067.8395835884</v>
       </c>
       <c r="AE6" t="n">
-        <v>118925.1819775253</v>
+        <v>151967.9180854607</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.132727373477867e-06</v>
+        <v>7.757059921181055e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.539351851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>107575.1295221624</v>
+        <v>137464.3132717384</v>
       </c>
     </row>
     <row r="7">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>86.37036026717493</v>
+        <v>110.3495054563878</v>
       </c>
       <c r="AB7" t="n">
-        <v>118.1757373088718</v>
+        <v>150.9850616419603</v>
       </c>
       <c r="AC7" t="n">
-        <v>106.8972108008328</v>
+        <v>136.5752592677577</v>
       </c>
       <c r="AD7" t="n">
-        <v>86370.36026717492</v>
+        <v>110349.5054563878</v>
       </c>
       <c r="AE7" t="n">
-        <v>118175.7373088718</v>
+        <v>150985.0616419603</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.162943768523991e-06</v>
+        <v>7.802725776762244e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.498842592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>106897.2108008327</v>
+        <v>136575.2592677577</v>
       </c>
     </row>
   </sheetData>
@@ -9238,28 +9238,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.01509689563032</v>
+        <v>112.6916213156045</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.1626267583537</v>
+        <v>154.1896478873983</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.408158520401</v>
+        <v>139.4740042995972</v>
       </c>
       <c r="AD2" t="n">
-        <v>90015.09689563033</v>
+        <v>112691.6213156045</v>
       </c>
       <c r="AE2" t="n">
-        <v>123162.6267583537</v>
+        <v>154189.6478873983</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.065497320292755e-06</v>
+        <v>8.005957679834976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.193287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>111408.158520401</v>
+        <v>139474.0042995972</v>
       </c>
     </row>
     <row r="3">
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.300885082275</v>
+        <v>99.06266084826977</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.3982371270059</v>
+        <v>135.5419029086997</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.43461589947684</v>
+        <v>122.6059739293852</v>
       </c>
       <c r="AD3" t="n">
-        <v>76300.885082275</v>
+        <v>99062.66084826978</v>
       </c>
       <c r="AE3" t="n">
-        <v>104398.2371270059</v>
+        <v>135541.9029086997</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.547290010280327e-06</v>
+        <v>8.767425240195156e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.568287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>94434.61589947683</v>
+        <v>122605.9739293852</v>
       </c>
     </row>
     <row r="4">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.26148156011116</v>
+        <v>99.02325732610595</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.3443234896206</v>
+        <v>135.4879892713145</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.38584770397534</v>
+        <v>122.5572057338837</v>
       </c>
       <c r="AD4" t="n">
-        <v>76261.48156011116</v>
+        <v>99023.25732610594</v>
       </c>
       <c r="AE4" t="n">
-        <v>104344.3234896206</v>
+        <v>135487.9892713145</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.573608534119168e-06</v>
+        <v>8.809021351045987e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.539351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>94385.84770397535</v>
+        <v>122557.2057338837</v>
       </c>
     </row>
   </sheetData>
@@ -9747,28 +9747,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.9003113265393</v>
+        <v>229.1859732427198</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.7252514166544</v>
+        <v>313.5823595620861</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.319192334168</v>
+        <v>283.6544992811793</v>
       </c>
       <c r="AD2" t="n">
-        <v>186900.3113265393</v>
+        <v>229185.9732427198</v>
       </c>
       <c r="AE2" t="n">
-        <v>255725.2514166544</v>
+        <v>313582.3595620861</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.998594955943006e-06</v>
+        <v>4.371610472259441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.39351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>231319.192334168</v>
+        <v>283654.4992811793</v>
       </c>
     </row>
     <row r="3">
@@ -9853,28 +9853,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.4382993847518</v>
+        <v>172.249778648492</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.4173886848591</v>
+        <v>235.6797462706745</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.3396589578042</v>
+        <v>213.1868020652709</v>
       </c>
       <c r="AD3" t="n">
-        <v>138438.2993847518</v>
+        <v>172249.778648492</v>
       </c>
       <c r="AE3" t="n">
-        <v>189417.3886848591</v>
+        <v>235679.7462706745</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.834538167584883e-06</v>
+        <v>5.590320618818255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>171339.6589578042</v>
+        <v>213186.8020652709</v>
       </c>
     </row>
     <row r="4">
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.3769991676503</v>
+        <v>154.103137576819</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.7051209195036</v>
+        <v>210.8507113831214</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.9858953440807</v>
+        <v>190.7274154196086</v>
       </c>
       <c r="AD4" t="n">
-        <v>120376.9991676503</v>
+        <v>154103.137576819</v>
       </c>
       <c r="AE4" t="n">
-        <v>164705.1209195036</v>
+        <v>210850.7113831214</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.203083271519487e-06</v>
+        <v>6.127617472688865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.413194444444446</v>
       </c>
       <c r="AH4" t="n">
-        <v>148985.8953440808</v>
+        <v>190727.4154196086</v>
       </c>
     </row>
     <row r="5">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.1892106613282</v>
+        <v>142.6118481271999</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.3434480498526</v>
+        <v>195.1278221982494</v>
       </c>
       <c r="AC5" t="n">
-        <v>145.0404944114615</v>
+        <v>176.5050967113223</v>
       </c>
       <c r="AD5" t="n">
-        <v>117189.2106613283</v>
+        <v>142611.8481271999</v>
       </c>
       <c r="AE5" t="n">
-        <v>160343.4480498526</v>
+        <v>195127.8221982495</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.351793509221075e-06</v>
+        <v>6.344420089254332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.158564814814814</v>
       </c>
       <c r="AH5" t="n">
-        <v>145040.4944114616</v>
+        <v>176505.0967113223</v>
       </c>
     </row>
     <row r="6">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.2251447038526</v>
+        <v>140.6477821697243</v>
       </c>
       <c r="AB6" t="n">
-        <v>157.6561263583611</v>
+        <v>192.440500506758</v>
       </c>
       <c r="AC6" t="n">
-        <v>142.6096469305255</v>
+        <v>174.0742492303862</v>
       </c>
       <c r="AD6" t="n">
-        <v>115225.1447038526</v>
+        <v>140647.7821697243</v>
       </c>
       <c r="AE6" t="n">
-        <v>157656.1263583611</v>
+        <v>192440.500506758</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.434870951934165e-06</v>
+        <v>6.465537553903325e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.025462962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>142609.6469305255</v>
+        <v>174074.2492303862</v>
       </c>
     </row>
     <row r="7">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.3927426383124</v>
+        <v>139.2041323935017</v>
       </c>
       <c r="AB7" t="n">
-        <v>144.2030000773308</v>
+        <v>190.4652351935979</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.4404681401711</v>
+        <v>172.2875004664112</v>
       </c>
       <c r="AD7" t="n">
-        <v>105392.7426383124</v>
+        <v>139204.1323935016</v>
       </c>
       <c r="AE7" t="n">
-        <v>144203.0000773308</v>
+        <v>190465.2351935979</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.487527944139868e-06</v>
+        <v>6.542305460855181e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.944444444444446</v>
       </c>
       <c r="AH7" t="n">
-        <v>130440.4681401711</v>
+        <v>172287.5004664112</v>
       </c>
     </row>
     <row r="8">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>103.0911621173119</v>
+        <v>136.9025518725012</v>
       </c>
       <c r="AB8" t="n">
-        <v>141.0538760699332</v>
+        <v>187.3161111862003</v>
       </c>
       <c r="AC8" t="n">
-        <v>127.5918921082152</v>
+        <v>169.4389244344553</v>
       </c>
       <c r="AD8" t="n">
-        <v>103091.1621173119</v>
+        <v>136902.5518725012</v>
       </c>
       <c r="AE8" t="n">
-        <v>141053.8760699332</v>
+        <v>187316.1111862003</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.574266609214907e-06</v>
+        <v>6.668760571386305e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.811342592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>127591.8921082153</v>
+        <v>169438.9244344553</v>
       </c>
     </row>
     <row r="9">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.9719533965651</v>
+        <v>135.7833431517543</v>
       </c>
       <c r="AB9" t="n">
-        <v>139.5225253222042</v>
+        <v>185.7847604384713</v>
       </c>
       <c r="AC9" t="n">
-        <v>126.2066913265847</v>
+        <v>168.0537236528248</v>
       </c>
       <c r="AD9" t="n">
-        <v>101971.9533965651</v>
+        <v>135783.3431517544</v>
       </c>
       <c r="AE9" t="n">
-        <v>139522.5253222042</v>
+        <v>185784.7604384713</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.615509202292177e-06</v>
+        <v>6.728887582352689e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.753472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>126206.6913265847</v>
+        <v>168053.7236528248</v>
       </c>
     </row>
     <row r="10">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>101.0379822356072</v>
+        <v>134.8493719907964</v>
       </c>
       <c r="AB10" t="n">
-        <v>138.2446247758827</v>
+        <v>184.5068598921497</v>
       </c>
       <c r="AC10" t="n">
-        <v>125.050751814859</v>
+        <v>166.8977841410991</v>
       </c>
       <c r="AD10" t="n">
-        <v>101037.9822356072</v>
+        <v>134849.3719907964</v>
       </c>
       <c r="AE10" t="n">
-        <v>138244.6247758827</v>
+        <v>184506.8598921497</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.634515253671128e-06</v>
+        <v>6.75659624406435e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.724537037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>125050.751814859</v>
+        <v>166897.7841410991</v>
       </c>
     </row>
     <row r="11">
@@ -10701,28 +10701,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>99.92764691196527</v>
+        <v>133.7390366671545</v>
       </c>
       <c r="AB11" t="n">
-        <v>136.7254150015392</v>
+        <v>182.9876501178063</v>
       </c>
       <c r="AC11" t="n">
-        <v>123.6765332891541</v>
+        <v>165.5235656153942</v>
       </c>
       <c r="AD11" t="n">
-        <v>99927.64691196528</v>
+        <v>133739.0366671545</v>
       </c>
       <c r="AE11" t="n">
-        <v>136725.4150015392</v>
+        <v>182987.6501178063</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.656428746337509e-06</v>
+        <v>6.788543624564765e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.689814814814816</v>
       </c>
       <c r="AH11" t="n">
-        <v>123676.5332891541</v>
+        <v>165523.5656153942</v>
       </c>
     </row>
     <row r="12">
@@ -10807,28 +10807,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>98.64267338862118</v>
+        <v>132.4540631438104</v>
       </c>
       <c r="AB12" t="n">
-        <v>134.9672575378697</v>
+        <v>181.2294926541368</v>
       </c>
       <c r="AC12" t="n">
-        <v>122.0861719062272</v>
+        <v>163.9332042324673</v>
       </c>
       <c r="AD12" t="n">
-        <v>98642.67338862117</v>
+        <v>132454.0631438104</v>
       </c>
       <c r="AE12" t="n">
-        <v>134967.2575378697</v>
+        <v>181229.4926541368</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.692287188882498e-06</v>
+        <v>6.840821156292717e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.637731481481482</v>
       </c>
       <c r="AH12" t="n">
-        <v>122086.1719062272</v>
+        <v>163933.2042324673</v>
       </c>
     </row>
     <row r="13">
@@ -10913,28 +10913,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>98.51499576075069</v>
+        <v>132.3263855159399</v>
       </c>
       <c r="AB13" t="n">
-        <v>134.792563374678</v>
+        <v>181.0547984909451</v>
       </c>
       <c r="AC13" t="n">
-        <v>121.9281503087857</v>
+        <v>163.7751826350257</v>
       </c>
       <c r="AD13" t="n">
-        <v>98514.99576075069</v>
+        <v>132326.3855159399</v>
       </c>
       <c r="AE13" t="n">
-        <v>134792.563374678</v>
+        <v>181054.7984909451</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.673604186535484e-06</v>
+        <v>6.813583463335361e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>121928.1503087857</v>
+        <v>163775.1826350257</v>
       </c>
     </row>
     <row r="14">
@@ -11019,28 +11019,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>98.6472472933872</v>
+        <v>132.4586370485764</v>
       </c>
       <c r="AB14" t="n">
-        <v>134.973515756157</v>
+        <v>181.2357508724241</v>
       </c>
       <c r="AC14" t="n">
-        <v>122.0918328489446</v>
+        <v>163.9388651751847</v>
       </c>
       <c r="AD14" t="n">
-        <v>98647.24729338719</v>
+        <v>132458.6370485764</v>
       </c>
       <c r="AE14" t="n">
-        <v>134973.5157561571</v>
+        <v>181235.7508724241</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.670696745248052e-06</v>
+        <v>6.809344744546607e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.672453703703703</v>
       </c>
       <c r="AH14" t="n">
-        <v>122091.8328489446</v>
+        <v>163938.8651751847</v>
       </c>
     </row>
   </sheetData>
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.24192172677395</v>
+        <v>105.8980287963771</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.3175608627297</v>
+        <v>144.8943548904467</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.36163926463335</v>
+        <v>131.065841020246</v>
       </c>
       <c r="AD2" t="n">
-        <v>76241.92172677396</v>
+        <v>105898.0287963771</v>
       </c>
       <c r="AE2" t="n">
-        <v>104317.5608627297</v>
+        <v>144894.3548904467</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.400246647904877e-06</v>
+        <v>8.652463635341681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.903935185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>94361.63926463336</v>
+        <v>131065.841020246</v>
       </c>
     </row>
     <row r="3">
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.7472799765511</v>
+        <v>103.4033870461543</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9042819642499</v>
+        <v>141.4810759919668</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.27411891365631</v>
+        <v>127.978320669269</v>
       </c>
       <c r="AD3" t="n">
-        <v>73747.2799765511</v>
+        <v>103403.3870461543</v>
       </c>
       <c r="AE3" t="n">
-        <v>100904.2819642499</v>
+        <v>141481.0759919668</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.627767211492942e-06</v>
+        <v>9.017005022261839e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.626157407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>91274.1189136563</v>
+        <v>127978.320669269</v>
       </c>
     </row>
   </sheetData>
@@ -11719,28 +11719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.481415441852</v>
+        <v>183.4143562382942</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.8953113789582</v>
+        <v>250.9556138754353</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.2449518368935</v>
+        <v>227.0047623056529</v>
       </c>
       <c r="AD2" t="n">
-        <v>150481.415441852</v>
+        <v>183414.3562382942</v>
       </c>
       <c r="AE2" t="n">
-        <v>205895.3113789582</v>
+        <v>250955.6138754353</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.541002563176633e-06</v>
+        <v>5.257833566950848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.149305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>186244.9518368935</v>
+        <v>227004.762305653</v>
       </c>
     </row>
     <row r="3">
@@ -11825,28 +11825,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.3425628326413</v>
+        <v>147.2754141205324</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.4485389054062</v>
+        <v>201.5087189323349</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.5173099292205</v>
+        <v>182.2770096167534</v>
       </c>
       <c r="AD3" t="n">
-        <v>114342.5628326413</v>
+        <v>147275.4141205325</v>
       </c>
       <c r="AE3" t="n">
-        <v>156448.5389054062</v>
+        <v>201508.7189323349</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.303679177149058e-06</v>
+        <v>6.390288748817543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.528935185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>141517.3099292205</v>
+        <v>182277.0096167534</v>
       </c>
     </row>
     <row r="4">
@@ -11931,28 +11931,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.1604777816906</v>
+        <v>133.86020575616</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.3581815212416</v>
+        <v>183.1534390109865</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.1036463024192</v>
+        <v>165.6735318492955</v>
       </c>
       <c r="AD4" t="n">
-        <v>109160.4777816906</v>
+        <v>133860.20575616</v>
       </c>
       <c r="AE4" t="n">
-        <v>149358.1815212416</v>
+        <v>183153.4390109865</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.569678389596541e-06</v>
+        <v>6.785255869861987e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.08912037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>135103.6463024192</v>
+        <v>165673.5318492955</v>
       </c>
     </row>
     <row r="5">
@@ -12037,28 +12037,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.24224218483074</v>
+        <v>131.0897526181503</v>
       </c>
       <c r="AB5" t="n">
-        <v>134.4193698990661</v>
+        <v>179.3627828037972</v>
       </c>
       <c r="AC5" t="n">
-        <v>121.5905738947056</v>
+        <v>162.2446505502997</v>
       </c>
       <c r="AD5" t="n">
-        <v>98242.24218483074</v>
+        <v>131089.7526181503</v>
       </c>
       <c r="AE5" t="n">
-        <v>134419.369899066</v>
+        <v>179362.7828037972</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.691426766505901e-06</v>
+        <v>6.966033119077404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.903935185185186</v>
       </c>
       <c r="AH5" t="n">
-        <v>121590.5738947056</v>
+        <v>162244.6505502997</v>
       </c>
     </row>
     <row r="6">
@@ -12143,28 +12143,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>96.420847447296</v>
+        <v>129.2683578806156</v>
       </c>
       <c r="AB6" t="n">
-        <v>131.9272572649076</v>
+        <v>176.8706701696387</v>
       </c>
       <c r="AC6" t="n">
-        <v>119.3363049926484</v>
+        <v>159.9903816482424</v>
       </c>
       <c r="AD6" t="n">
-        <v>96420.84744729599</v>
+        <v>129268.3578806156</v>
       </c>
       <c r="AE6" t="n">
-        <v>131927.2572649076</v>
+        <v>176870.6701696387</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.773991757743283e-06</v>
+        <v>7.088629184637287e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.788194444444446</v>
       </c>
       <c r="AH6" t="n">
-        <v>119336.3049926484</v>
+        <v>159990.3816482424</v>
       </c>
     </row>
     <row r="7">
@@ -12249,28 +12249,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>94.0182911648475</v>
+        <v>126.8658015981671</v>
       </c>
       <c r="AB7" t="n">
-        <v>128.6399737659606</v>
+        <v>173.5833866706917</v>
       </c>
       <c r="AC7" t="n">
-        <v>116.3627552171085</v>
+        <v>157.0168318727026</v>
       </c>
       <c r="AD7" t="n">
-        <v>94018.2911648475</v>
+        <v>126865.8015981671</v>
       </c>
       <c r="AE7" t="n">
-        <v>128639.9737659606</v>
+        <v>173583.3866706917</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.87139045927077e-06</v>
+        <v>7.23325098400962e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.649305555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>116362.7552171085</v>
+        <v>157016.8318727026</v>
       </c>
     </row>
     <row r="8">
@@ -12355,28 +12355,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>92.40167575737131</v>
+        <v>117.1866550778613</v>
       </c>
       <c r="AB8" t="n">
-        <v>126.4280492454145</v>
+        <v>160.3399513878087</v>
       </c>
       <c r="AC8" t="n">
-        <v>114.3619336683471</v>
+        <v>145.0373314659356</v>
       </c>
       <c r="AD8" t="n">
-        <v>92401.67575737131</v>
+        <v>117186.6550778613</v>
       </c>
       <c r="AE8" t="n">
-        <v>126428.0492454145</v>
+        <v>160339.9513878087</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.919809928708285e-06</v>
+        <v>7.305146303812532e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.585648148148149</v>
       </c>
       <c r="AH8" t="n">
-        <v>114361.9336683471</v>
+        <v>145037.3314659355</v>
       </c>
     </row>
     <row r="9">
@@ -12461,28 +12461,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>91.61099080428819</v>
+        <v>116.3959701247782</v>
       </c>
       <c r="AB9" t="n">
-        <v>125.3461992100485</v>
+        <v>159.2581013524427</v>
       </c>
       <c r="AC9" t="n">
-        <v>113.38333388197</v>
+        <v>144.0587316795584</v>
       </c>
       <c r="AD9" t="n">
-        <v>91610.99080428819</v>
+        <v>116395.9701247782</v>
       </c>
       <c r="AE9" t="n">
-        <v>125346.1992100485</v>
+        <v>159258.1013524427</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.946734512291459e-06</v>
+        <v>7.345125088581551e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.550925925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>113383.33388197</v>
+        <v>144058.7316795584</v>
       </c>
     </row>
     <row r="10">
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>91.79061577476739</v>
+        <v>116.5755950952574</v>
       </c>
       <c r="AB10" t="n">
-        <v>125.5919700191524</v>
+        <v>159.5038721615466</v>
       </c>
       <c r="AC10" t="n">
-        <v>113.6056486699946</v>
+        <v>144.2810464675831</v>
       </c>
       <c r="AD10" t="n">
-        <v>91790.61577476739</v>
+        <v>116575.5950952574</v>
       </c>
       <c r="AE10" t="n">
-        <v>125591.9700191524</v>
+        <v>159503.8721615466</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.942088482276068e-06</v>
+        <v>7.338226462519538e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.556712962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>113605.6486699946</v>
+        <v>144281.046467583</v>
       </c>
     </row>
   </sheetData>
@@ -12864,28 +12864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.1476332437721</v>
+        <v>205.940163852005</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.594033486514</v>
+        <v>281.7764176209942</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.1590941503314</v>
+        <v>254.8840717990153</v>
       </c>
       <c r="AD2" t="n">
-        <v>164147.6332437721</v>
+        <v>205940.163852005</v>
       </c>
       <c r="AE2" t="n">
-        <v>224594.0334865139</v>
+        <v>281776.4176209942</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.247626637761162e-06</v>
+        <v>4.775448164557295e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.774305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>203159.0941503314</v>
+        <v>254884.0717990153</v>
       </c>
     </row>
     <row r="3">
@@ -12970,28 +12970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.839608530459</v>
+        <v>155.2736330170454</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.7063275754686</v>
+        <v>212.4522348830528</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.7961096455123</v>
+        <v>192.1760917644593</v>
       </c>
       <c r="AD3" t="n">
-        <v>121839.6085304591</v>
+        <v>155273.6330170454</v>
       </c>
       <c r="AE3" t="n">
-        <v>166706.3275754686</v>
+        <v>212452.2348830528</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.063399911143463e-06</v>
+        <v>5.974995839087393e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>150796.1096455123</v>
+        <v>192176.0917644593</v>
       </c>
     </row>
     <row r="4">
@@ -13076,28 +13076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.8992854533725</v>
+        <v>139.9748933268633</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.2102713559588</v>
+        <v>191.5198243061953</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.2063437037908</v>
+        <v>173.2414410742277</v>
       </c>
       <c r="AD4" t="n">
-        <v>114899.2854533725</v>
+        <v>139974.8933268633</v>
       </c>
       <c r="AE4" t="n">
-        <v>157210.2713559588</v>
+        <v>191519.8243061953</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.372564489740748e-06</v>
+        <v>6.429604568502893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.256944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>142206.3437037909</v>
+        <v>173241.4410742277</v>
       </c>
     </row>
     <row r="5">
@@ -13182,28 +13182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.9387000412782</v>
+        <v>136.2873836732929</v>
       </c>
       <c r="AB5" t="n">
-        <v>140.8452707313518</v>
+        <v>186.4744109167384</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.4031957703685</v>
+        <v>168.6775548573768</v>
       </c>
       <c r="AD5" t="n">
-        <v>102938.7000412781</v>
+        <v>136287.3836732929</v>
       </c>
       <c r="AE5" t="n">
-        <v>140845.2707313518</v>
+        <v>186474.4109167384</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.546260466398119e-06</v>
+        <v>6.685014511035958e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.979166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>127403.1957703685</v>
+        <v>168677.5548573768</v>
       </c>
     </row>
     <row r="6">
@@ -13288,28 +13288,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.0241938167043</v>
+        <v>134.372877448719</v>
       </c>
       <c r="AB6" t="n">
-        <v>138.2257588528376</v>
+        <v>183.8548990382241</v>
       </c>
       <c r="AC6" t="n">
-        <v>125.0336864290308</v>
+        <v>166.3080455160391</v>
       </c>
       <c r="AD6" t="n">
-        <v>101024.1938167043</v>
+        <v>134372.877448719</v>
       </c>
       <c r="AE6" t="n">
-        <v>138225.7588528376</v>
+        <v>183854.8990382242</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.629296686372625e-06</v>
+        <v>6.807114496193857e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.857638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>125033.6864290308</v>
+        <v>166308.0455160391</v>
       </c>
     </row>
     <row r="7">
@@ -13394,28 +13394,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>99.56770970852908</v>
+        <v>132.9163933405438</v>
       </c>
       <c r="AB7" t="n">
-        <v>136.2329330404893</v>
+        <v>181.8620732258759</v>
       </c>
       <c r="AC7" t="n">
-        <v>123.2310531152639</v>
+        <v>164.5054122022722</v>
       </c>
       <c r="AD7" t="n">
-        <v>99567.70970852907</v>
+        <v>132916.3933405438</v>
       </c>
       <c r="AE7" t="n">
-        <v>136232.9330404894</v>
+        <v>181862.0732258759</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.673118311048735e-06</v>
+        <v>6.871551674622629e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.793981481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>123231.0531152639</v>
+        <v>164505.4122022722</v>
       </c>
     </row>
     <row r="8">
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>98.28238950688055</v>
+        <v>131.6310731388953</v>
       </c>
       <c r="AB8" t="n">
-        <v>134.4743012362694</v>
+        <v>180.103441421656</v>
       </c>
       <c r="AC8" t="n">
-        <v>121.6402626621829</v>
+        <v>162.9146217491912</v>
       </c>
       <c r="AD8" t="n">
-        <v>98282.38950688054</v>
+        <v>131631.0731388953</v>
       </c>
       <c r="AE8" t="n">
-        <v>134474.3012362694</v>
+        <v>180103.441421656</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.72072428128511e-06</v>
+        <v>6.941553515518967e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.724537037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>121640.2626621829</v>
+        <v>162914.6217491912</v>
       </c>
     </row>
     <row r="9">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>96.64100484294694</v>
+        <v>129.9896884749617</v>
       </c>
       <c r="AB9" t="n">
-        <v>132.2284863262959</v>
+        <v>177.8576265116824</v>
       </c>
       <c r="AC9" t="n">
-        <v>119.6087851751955</v>
+        <v>160.8831442622038</v>
       </c>
       <c r="AD9" t="n">
-        <v>96641.00484294695</v>
+        <v>129989.6884749617</v>
       </c>
       <c r="AE9" t="n">
-        <v>132228.4863262959</v>
+        <v>177857.6265116824</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.778092766155211e-06</v>
+        <v>7.025910572635981e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.643518518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>119608.7851751955</v>
+        <v>160883.1442622038</v>
       </c>
     </row>
     <row r="10">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>95.57715525945105</v>
+        <v>128.9258388914658</v>
       </c>
       <c r="AB10" t="n">
-        <v>130.7728803924263</v>
+        <v>176.4020205778129</v>
       </c>
       <c r="AC10" t="n">
-        <v>118.2921002286982</v>
+        <v>159.5664593157065</v>
       </c>
       <c r="AD10" t="n">
-        <v>95577.15525945104</v>
+        <v>128925.8388914658</v>
       </c>
       <c r="AE10" t="n">
-        <v>130772.8803924263</v>
+        <v>176402.0205778129</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.795259435145978e-06</v>
+        <v>7.051153171945374e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.62037037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>118292.1002286982</v>
+        <v>159566.4593157065</v>
       </c>
     </row>
     <row r="11">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>94.71956257463555</v>
+        <v>119.8804217941469</v>
       </c>
       <c r="AB11" t="n">
-        <v>129.5994842467433</v>
+        <v>164.025681849629</v>
       </c>
       <c r="AC11" t="n">
-        <v>117.230691364287</v>
+        <v>148.3713009854361</v>
       </c>
       <c r="AD11" t="n">
-        <v>94719.56257463555</v>
+        <v>119880.4217941469</v>
       </c>
       <c r="AE11" t="n">
-        <v>129599.4842467433</v>
+        <v>164025.681849629</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.81593622175786e-06</v>
+        <v>7.081557197311641e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.591435185185186</v>
       </c>
       <c r="AH11" t="n">
-        <v>117230.691364287</v>
+        <v>148371.3009854361</v>
       </c>
     </row>
   </sheetData>
@@ -14115,28 +14115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.8479266661217</v>
+        <v>254.757992216318</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.8596793353655</v>
+        <v>348.5711240796014</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.1958783602986</v>
+        <v>315.3039852201935</v>
       </c>
       <c r="AD2" t="n">
-        <v>211847.9266661217</v>
+        <v>254757.992216318</v>
       </c>
       <c r="AE2" t="n">
-        <v>289859.6793353655</v>
+        <v>348571.1240796014</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.763216677868734e-06</v>
+        <v>3.997745919499905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>262195.8783602986</v>
+        <v>315303.9852201935</v>
       </c>
     </row>
     <row r="3">
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.1893344318898</v>
+        <v>183.6026561197777</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.1274291385377</v>
+        <v>251.2132540804853</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.6457937962599</v>
+        <v>227.2378136911334</v>
       </c>
       <c r="AD3" t="n">
-        <v>149189.3344318898</v>
+        <v>183602.6561197777</v>
       </c>
       <c r="AE3" t="n">
-        <v>204127.4291385377</v>
+        <v>251213.2540804853</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.571477540326343e-06</v>
+        <v>5.167115513517274e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.576388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>184645.7937962599</v>
+        <v>227237.8136911334</v>
       </c>
     </row>
     <row r="4">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.9029086762502</v>
+        <v>161.2308895095665</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.6341582119739</v>
+        <v>220.6032160317239</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.0627578493431</v>
+        <v>199.5491547122778</v>
       </c>
       <c r="AD4" t="n">
-        <v>126902.9086762502</v>
+        <v>161230.8895095665</v>
       </c>
       <c r="AE4" t="n">
-        <v>173634.1582119739</v>
+        <v>220603.2160317239</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.014041124957311e-06</v>
+        <v>5.807404340212663e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.633101851851851</v>
       </c>
       <c r="AH4" t="n">
-        <v>157062.7578493431</v>
+        <v>199549.1547122778</v>
       </c>
     </row>
     <row r="5">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.0912287742085</v>
+        <v>157.2486174069326</v>
       </c>
       <c r="AB5" t="n">
-        <v>168.4188496105538</v>
+        <v>215.154495655457</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.3451909811093</v>
+        <v>194.620452561393</v>
       </c>
       <c r="AD5" t="n">
-        <v>123091.2287742085</v>
+        <v>157248.6174069326</v>
       </c>
       <c r="AE5" t="n">
-        <v>168418.8496105539</v>
+        <v>215154.495655457</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.172220549703404e-06</v>
+        <v>6.036253983055464e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH5" t="n">
-        <v>152345.1909811093</v>
+        <v>194620.452561393</v>
       </c>
     </row>
     <row r="6">
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.3729199205176</v>
+        <v>146.1189950540559</v>
       </c>
       <c r="AB6" t="n">
-        <v>164.699539513613</v>
+        <v>199.9264553479738</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.9808466197348</v>
+        <v>180.8457550481624</v>
       </c>
       <c r="AD6" t="n">
-        <v>120372.9199205176</v>
+        <v>146118.9950540558</v>
       </c>
       <c r="AE6" t="n">
-        <v>164699.539513613</v>
+        <v>199926.4553479739</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.283920210417679e-06</v>
+        <v>6.197857981180736e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.152777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>148980.8466197348</v>
+        <v>180845.7550481624</v>
       </c>
     </row>
     <row r="7">
@@ -14645,28 +14645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>118.3639715007939</v>
+        <v>144.1100466343321</v>
       </c>
       <c r="AB7" t="n">
-        <v>161.9508076571991</v>
+        <v>197.17772349156</v>
       </c>
       <c r="AC7" t="n">
-        <v>146.4944498738268</v>
+        <v>178.3593583022544</v>
       </c>
       <c r="AD7" t="n">
-        <v>118363.9715007939</v>
+        <v>144110.0466343321</v>
       </c>
       <c r="AE7" t="n">
-        <v>161950.8076571991</v>
+        <v>197177.72349156</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.363327552157685e-06</v>
+        <v>6.312742340037565e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.019675925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>146494.4498738268</v>
+        <v>178359.3583022544</v>
       </c>
     </row>
     <row r="8">
@@ -14751,28 +14751,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>108.6770040176635</v>
+        <v>142.9196439964082</v>
       </c>
       <c r="AB8" t="n">
-        <v>148.696671387943</v>
+        <v>195.5489620854954</v>
       </c>
       <c r="AC8" t="n">
-        <v>134.5052697678072</v>
+        <v>176.8860435988031</v>
       </c>
       <c r="AD8" t="n">
-        <v>108677.0040176635</v>
+        <v>142919.6439964082</v>
       </c>
       <c r="AE8" t="n">
-        <v>148696.671387943</v>
+        <v>195548.9620854954</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.398372658978941e-06</v>
+        <v>6.363444637079712e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.967592592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>134505.2697678072</v>
+        <v>176886.0435988031</v>
       </c>
     </row>
     <row r="9">
@@ -14857,28 +14857,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>107.2835830781967</v>
+        <v>141.5262230569413</v>
       </c>
       <c r="AB9" t="n">
-        <v>146.7901313851721</v>
+        <v>193.6424220827246</v>
       </c>
       <c r="AC9" t="n">
-        <v>132.7806872670545</v>
+        <v>175.1614610980504</v>
       </c>
       <c r="AD9" t="n">
-        <v>107283.5830781967</v>
+        <v>141526.2230569414</v>
       </c>
       <c r="AE9" t="n">
-        <v>146790.1313851721</v>
+        <v>193642.4220827246</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.445381805289024e-06</v>
+        <v>6.431456177522953e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.892361111111112</v>
       </c>
       <c r="AH9" t="n">
-        <v>132780.6872670545</v>
+        <v>175161.4610980504</v>
       </c>
     </row>
     <row r="10">
@@ -14963,28 +14963,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>105.9727271488435</v>
+        <v>140.2153671275881</v>
       </c>
       <c r="AB10" t="n">
-        <v>144.9965604717498</v>
+        <v>191.8488511693022</v>
       </c>
       <c r="AC10" t="n">
-        <v>131.158292244316</v>
+        <v>173.539066075312</v>
       </c>
       <c r="AD10" t="n">
-        <v>105972.7271488435</v>
+        <v>140215.3671275881</v>
       </c>
       <c r="AE10" t="n">
-        <v>144996.5604717498</v>
+        <v>191848.8511693022</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.487573572866881e-06</v>
+        <v>6.492498066862215e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.828703703703705</v>
       </c>
       <c r="AH10" t="n">
-        <v>131158.292244316</v>
+        <v>173539.0660753119</v>
       </c>
     </row>
     <row r="11">
@@ -15069,28 +15069,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>104.8423080413786</v>
+        <v>139.0849480201233</v>
       </c>
       <c r="AB11" t="n">
-        <v>143.4498711783458</v>
+        <v>190.3021618758983</v>
       </c>
       <c r="AC11" t="n">
-        <v>129.759216806282</v>
+        <v>172.1399906372779</v>
       </c>
       <c r="AD11" t="n">
-        <v>104842.3080413786</v>
+        <v>139084.9480201233</v>
       </c>
       <c r="AE11" t="n">
-        <v>143449.8711783458</v>
+        <v>190302.1618758983</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.517642486272429e-06</v>
+        <v>6.536000944082667e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.782407407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>129759.216806282</v>
+        <v>172139.9906372779</v>
       </c>
     </row>
     <row r="12">
@@ -15175,28 +15175,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>104.0737993058226</v>
+        <v>138.3164392845672</v>
       </c>
       <c r="AB12" t="n">
-        <v>142.398363622146</v>
+        <v>189.2506543196984</v>
       </c>
       <c r="AC12" t="n">
-        <v>128.8080636554454</v>
+        <v>171.1888374864413</v>
       </c>
       <c r="AD12" t="n">
-        <v>104073.7993058226</v>
+        <v>138316.4392845672</v>
       </c>
       <c r="AE12" t="n">
-        <v>142398.363622146</v>
+        <v>189250.6543196984</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.533259263481298e-06</v>
+        <v>6.558594867991176e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.75925925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>128808.0636554454</v>
+        <v>171188.8374864413</v>
       </c>
     </row>
     <row r="13">
@@ -15281,28 +15281,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>103.083864646392</v>
+        <v>137.3265046251367</v>
       </c>
       <c r="AB13" t="n">
-        <v>141.0438913482789</v>
+        <v>187.8961820458314</v>
       </c>
       <c r="AC13" t="n">
-        <v>127.582860314382</v>
+        <v>169.9636341453779</v>
       </c>
       <c r="AD13" t="n">
-        <v>103083.864646392</v>
+        <v>137326.5046251367</v>
       </c>
       <c r="AE13" t="n">
-        <v>141043.8913482789</v>
+        <v>187896.1820458313</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.5578755394207e-06</v>
+        <v>6.594209019236793e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH13" t="n">
-        <v>127582.860314382</v>
+        <v>169963.6341453779</v>
       </c>
     </row>
     <row r="14">
@@ -15387,28 +15387,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>102.3870744658425</v>
+        <v>136.6297144445872</v>
       </c>
       <c r="AB14" t="n">
-        <v>140.0905122830384</v>
+        <v>186.9428029805908</v>
       </c>
       <c r="AC14" t="n">
-        <v>126.7204704090517</v>
+        <v>169.1012442400477</v>
       </c>
       <c r="AD14" t="n">
-        <v>102387.0744658425</v>
+        <v>136629.7144445872</v>
       </c>
       <c r="AE14" t="n">
-        <v>140090.5122830383</v>
+        <v>186942.8029805908</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.559040180432887e-06</v>
+        <v>6.59589398983336e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH14" t="n">
-        <v>126720.4704090517</v>
+        <v>169101.2442400477</v>
       </c>
     </row>
     <row r="15">
@@ -15493,28 +15493,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>101.7545601129954</v>
+        <v>135.99720009174</v>
       </c>
       <c r="AB15" t="n">
-        <v>139.2250782409094</v>
+        <v>186.0773689384619</v>
       </c>
       <c r="AC15" t="n">
-        <v>125.937632177259</v>
+        <v>168.318406008255</v>
       </c>
       <c r="AD15" t="n">
-        <v>101754.5601129954</v>
+        <v>135997.20009174</v>
       </c>
       <c r="AE15" t="n">
-        <v>139225.0782409094</v>
+        <v>186077.3689384619</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.580638977386168e-06</v>
+        <v>6.627142535442417e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.689814814814816</v>
       </c>
       <c r="AH15" t="n">
-        <v>125937.632177259</v>
+        <v>168318.406008255</v>
       </c>
     </row>
     <row r="16">
@@ -15599,28 +15599,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>101.7951958415245</v>
+        <v>136.0378358202691</v>
       </c>
       <c r="AB16" t="n">
-        <v>139.2806778374048</v>
+        <v>186.1329685349572</v>
       </c>
       <c r="AC16" t="n">
-        <v>125.9879254262994</v>
+        <v>168.3686992572953</v>
       </c>
       <c r="AD16" t="n">
-        <v>101795.1958415245</v>
+        <v>136037.8358202691</v>
       </c>
       <c r="AE16" t="n">
-        <v>139280.6778374048</v>
+        <v>186132.9685349572</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.582280062448795e-06</v>
+        <v>6.629516812192126e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.684027777777779</v>
       </c>
       <c r="AH16" t="n">
-        <v>125987.9254262994</v>
+        <v>168368.6992572953</v>
       </c>
     </row>
   </sheetData>
@@ -15896,28 +15896,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.1449075852849</v>
+        <v>170.5386128967074</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.0700041462104</v>
+        <v>233.3384537977789</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.0752528733663</v>
+        <v>211.068959259963</v>
       </c>
       <c r="AD2" t="n">
-        <v>130144.9075852849</v>
+        <v>170538.6128967074</v>
       </c>
       <c r="AE2" t="n">
-        <v>178070.0041462104</v>
+        <v>233338.4537977789</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.854399925477769e-06</v>
+        <v>5.788093064426891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.599537037037036</v>
       </c>
       <c r="AH2" t="n">
-        <v>161075.2528733663</v>
+        <v>211068.959259963</v>
       </c>
     </row>
     <row r="3">
@@ -16002,28 +16002,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.1946454589174</v>
+        <v>139.4072901911205</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.6684430108234</v>
+        <v>190.7432046549894</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.6706126603628</v>
+        <v>172.5389409125402</v>
       </c>
       <c r="AD3" t="n">
-        <v>107194.6454589174</v>
+        <v>139407.2901911205</v>
       </c>
       <c r="AE3" t="n">
-        <v>146668.4430108234</v>
+        <v>190743.2046549894</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.557803142141978e-06</v>
+        <v>6.844382852354129e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.274305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>132670.6126603629</v>
+        <v>172538.9409125402</v>
       </c>
     </row>
     <row r="4">
@@ -16108,28 +16108,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.32798379370263</v>
+        <v>126.6258798719263</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.0637088834345</v>
+        <v>173.2551151802498</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.7460496496868</v>
+        <v>156.7198901525764</v>
       </c>
       <c r="AD4" t="n">
-        <v>94327.98379370263</v>
+        <v>126625.8798719263</v>
       </c>
       <c r="AE4" t="n">
-        <v>129063.7088834345</v>
+        <v>173255.1151802498</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.818558299728051e-06</v>
+        <v>7.235954860531358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.880787037037038</v>
       </c>
       <c r="AH4" t="n">
-        <v>116746.0496496868</v>
+        <v>156719.8901525764</v>
       </c>
     </row>
     <row r="5">
@@ -16214,28 +16214,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.95786885509044</v>
+        <v>124.2557649333141</v>
       </c>
       <c r="AB5" t="n">
-        <v>125.8208130623355</v>
+        <v>170.0122193591507</v>
       </c>
       <c r="AC5" t="n">
-        <v>113.8126512543196</v>
+        <v>153.7864917572091</v>
       </c>
       <c r="AD5" t="n">
-        <v>91957.86885509043</v>
+        <v>124255.7649333141</v>
       </c>
       <c r="AE5" t="n">
-        <v>125820.8130623355</v>
+        <v>170012.2193591507</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.935047645330967e-06</v>
+        <v>7.41088511852224e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.712962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>113812.6512543196</v>
+        <v>153786.4917572091</v>
       </c>
     </row>
     <row r="6">
@@ -16320,28 +16320,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.87422643655312</v>
+        <v>114.2469949907212</v>
       </c>
       <c r="AB6" t="n">
-        <v>122.9698815814783</v>
+        <v>156.3177787679356</v>
       </c>
       <c r="AC6" t="n">
-        <v>111.233808672687</v>
+        <v>141.3990293557471</v>
       </c>
       <c r="AD6" t="n">
-        <v>89874.22643655312</v>
+        <v>114246.9949907212</v>
       </c>
       <c r="AE6" t="n">
-        <v>122969.8815814783</v>
+        <v>156317.7787679356</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.029144004635583e-06</v>
+        <v>7.552188173526672e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.591435185185186</v>
       </c>
       <c r="AH6" t="n">
-        <v>111233.808672687</v>
+        <v>141399.0293557471</v>
       </c>
     </row>
     <row r="7">
@@ -16426,28 +16426,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.28464577486987</v>
+        <v>112.657414329038</v>
       </c>
       <c r="AB7" t="n">
-        <v>120.7949471928149</v>
+        <v>154.1428443792722</v>
       </c>
       <c r="AC7" t="n">
-        <v>109.2664469695374</v>
+        <v>139.4316676525975</v>
       </c>
       <c r="AD7" t="n">
-        <v>88284.64577486987</v>
+        <v>112657.414329038</v>
       </c>
       <c r="AE7" t="n">
-        <v>120794.9471928149</v>
+        <v>154142.8443792722</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.077996222825989e-06</v>
+        <v>7.625548797944677e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>109266.4469695374</v>
+        <v>139431.6676525975</v>
       </c>
     </row>
     <row r="8">
@@ -16532,28 +16532,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>88.27647837377638</v>
+        <v>112.6492469279445</v>
       </c>
       <c r="AB8" t="n">
-        <v>120.7837721943185</v>
+        <v>154.1316693807758</v>
       </c>
       <c r="AC8" t="n">
-        <v>109.2563384972133</v>
+        <v>139.4215591802733</v>
       </c>
       <c r="AD8" t="n">
-        <v>88276.47837377638</v>
+        <v>112649.2469279445</v>
       </c>
       <c r="AE8" t="n">
-        <v>120783.7721943185</v>
+        <v>154131.6693807758</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.069233749926655e-06</v>
+        <v>7.612390327210851e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.539351851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>109256.3384972133</v>
+        <v>139421.5591802733</v>
       </c>
     </row>
   </sheetData>
@@ -16829,28 +16829,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.7139927572418</v>
+        <v>136.1467607255631</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.2743045457191</v>
+        <v>186.282004395808</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.6004060066637</v>
+        <v>168.5035113447597</v>
       </c>
       <c r="AD2" t="n">
-        <v>104713.9927572418</v>
+        <v>136146.7607255631</v>
       </c>
       <c r="AE2" t="n">
-        <v>143274.3045457191</v>
+        <v>186282.004395808</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.44734468503127e-06</v>
+        <v>6.821100451823138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.760416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>129600.4060066637</v>
+        <v>168503.5113447597</v>
       </c>
     </row>
     <row r="3">
@@ -16935,28 +16935,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.60668749662244</v>
+        <v>118.9541146103721</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.8673347671089</v>
+        <v>162.7582674950002</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.4273645718282</v>
+        <v>147.2248468779854</v>
       </c>
       <c r="AD3" t="n">
-        <v>87606.68749662244</v>
+        <v>118954.1146103721</v>
       </c>
       <c r="AE3" t="n">
-        <v>119867.3347671089</v>
+        <v>162758.2674950002</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.043501730659824e-06</v>
+        <v>7.735454382378868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.846064814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>108427.3645718282</v>
+        <v>147224.8468779854</v>
       </c>
     </row>
     <row r="4">
@@ -17041,28 +17041,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.8550017169626</v>
+        <v>116.2024288307123</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.1023568875713</v>
+        <v>158.9932896154626</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.0217108969329</v>
+        <v>143.81919320309</v>
       </c>
       <c r="AD4" t="n">
-        <v>84855.00171696261</v>
+        <v>116202.4288307123</v>
       </c>
       <c r="AE4" t="n">
-        <v>116102.3568875713</v>
+        <v>158993.2896154626</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.202548531785186e-06</v>
+        <v>7.97939189652493e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.637731481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>105021.7108969329</v>
+        <v>143819.19320309</v>
       </c>
     </row>
     <row r="5">
@@ -17147,28 +17147,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.78649307797808</v>
+        <v>106.4464099087907</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.2721321115535</v>
+        <v>145.6446741213178</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.4615988012919</v>
+        <v>131.7445508368027</v>
       </c>
       <c r="AD5" t="n">
-        <v>82786.49307797808</v>
+        <v>106446.4099087907</v>
       </c>
       <c r="AE5" t="n">
-        <v>113272.1321115535</v>
+        <v>145644.6741213178</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.302236155446279e-06</v>
+        <v>8.132287465218876e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>102461.5988012919</v>
+        <v>131744.5508368027</v>
       </c>
     </row>
     <row r="6">
@@ -17253,28 +17253,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>82.954439151503</v>
+        <v>106.6143559823156</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.501923338608</v>
+        <v>145.8744653483723</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.6694590761504</v>
+        <v>131.9524111116612</v>
       </c>
       <c r="AD6" t="n">
-        <v>82954.439151503</v>
+        <v>106614.3559823156</v>
       </c>
       <c r="AE6" t="n">
-        <v>113501.923338608</v>
+        <v>145874.4653483723</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.292690961080166e-06</v>
+        <v>8.117647554392407e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.52199074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>102669.4590761504</v>
+        <v>131952.4111116612</v>
       </c>
     </row>
   </sheetData>
@@ -31891,28 +31891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.02443218395391</v>
+        <v>126.5268803437269</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.3848644129961</v>
+        <v>173.1196596582165</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.84567735327</v>
+        <v>156.5973623154529</v>
       </c>
       <c r="AD2" t="n">
-        <v>96024.4321839539</v>
+        <v>126526.8803437269</v>
       </c>
       <c r="AE2" t="n">
-        <v>131384.864412996</v>
+        <v>173119.6596582165</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.776023093274637e-06</v>
+        <v>7.462441874440228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.476851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>118845.67735327</v>
+        <v>156597.3623154529</v>
       </c>
     </row>
     <row r="3">
@@ -31997,28 +31997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.30106291779586</v>
+        <v>110.8887624235895</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.8714569169538</v>
+        <v>151.7228968148236</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.38547927438613</v>
+        <v>137.2426764872813</v>
       </c>
       <c r="AD3" t="n">
-        <v>80301.06291779586</v>
+        <v>110888.7624235895</v>
       </c>
       <c r="AE3" t="n">
-        <v>109871.4569169538</v>
+        <v>151722.8968148236</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.355445517364721e-06</v>
+        <v>8.367777982761861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>99385.47927438613</v>
+        <v>137242.6764872813</v>
       </c>
     </row>
     <row r="4">
@@ -32103,28 +32103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.51092169195213</v>
+        <v>101.6010428167976</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.4221067162986</v>
+        <v>139.0150291035467</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.16989161919605</v>
+        <v>125.7476298347603</v>
       </c>
       <c r="AD4" t="n">
-        <v>78510.92169195213</v>
+        <v>101601.0428167976</v>
       </c>
       <c r="AE4" t="n">
-        <v>107422.1067162986</v>
+        <v>139015.0291035467</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.478562754137509e-06</v>
+        <v>8.56014623668684e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.516203703703703</v>
       </c>
       <c r="AH4" t="n">
-        <v>97169.89161919605</v>
+        <v>125747.6298347603</v>
       </c>
     </row>
   </sheetData>
@@ -32400,28 +32400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.54501454287991</v>
+        <v>99.62669832496668</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.5228011239228</v>
+        <v>136.3136438678933</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.31080045528165</v>
+        <v>123.3040610145788</v>
       </c>
       <c r="AD2" t="n">
-        <v>70545.01454287992</v>
+        <v>99626.69832496668</v>
       </c>
       <c r="AE2" t="n">
-        <v>96522.80112392281</v>
+        <v>136313.6438678933</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.687883742552675e-06</v>
+        <v>9.269408383060715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.741898148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>87310.80045528166</v>
+        <v>123304.0610145788</v>
       </c>
     </row>
     <row r="3">
@@ -32506,28 +32506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.94653710301726</v>
+        <v>100.028220885104</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.07218200462763</v>
+        <v>136.8630247485981</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.80774919579311</v>
+        <v>123.8010097550903</v>
       </c>
       <c r="AD3" t="n">
-        <v>70946.53710301727</v>
+        <v>100028.220885104</v>
       </c>
       <c r="AE3" t="n">
-        <v>97072.18200462764</v>
+        <v>136863.0247485981</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.663839795765055e-06</v>
+        <v>9.230224536835508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.765046296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>87807.74919579311</v>
+        <v>123801.0097550903</v>
       </c>
     </row>
   </sheetData>
@@ -32803,28 +32803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.8439271576838</v>
+        <v>198.159313153197</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.6007806027614</v>
+        <v>271.1303144279842</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.1195832961825</v>
+        <v>245.254017752843</v>
       </c>
       <c r="AD2" t="n">
-        <v>156843.9271576838</v>
+        <v>198159.3131531971</v>
       </c>
       <c r="AE2" t="n">
-        <v>214600.7806027614</v>
+        <v>271130.3144279842</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.398256178356152e-06</v>
+        <v>5.020518447589328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.432870370370372</v>
       </c>
       <c r="AH2" t="n">
-        <v>194119.5832961825</v>
+        <v>245254.017752843</v>
       </c>
     </row>
     <row r="3">
@@ -32909,28 +32909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.1028133945015</v>
+        <v>151.2915959513858</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.5934796146875</v>
+        <v>207.0038360947432</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.1712247181793</v>
+        <v>187.2476805096286</v>
       </c>
       <c r="AD3" t="n">
-        <v>118102.8133945015</v>
+        <v>151291.5959513858</v>
       </c>
       <c r="AE3" t="n">
-        <v>161593.4796146875</v>
+        <v>207003.8360947432</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.181237711267807e-06</v>
+        <v>6.177280334801221e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.667824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>146171.2247181793</v>
+        <v>187247.6805096286</v>
       </c>
     </row>
     <row r="4">
@@ -33015,28 +33015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.2319733769055</v>
+        <v>138.1236498031198</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.9289814163203</v>
+        <v>188.9868712459105</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.1427768741802</v>
+        <v>170.9502294989938</v>
       </c>
       <c r="AD4" t="n">
-        <v>113231.9733769055</v>
+        <v>138123.6498031198</v>
       </c>
       <c r="AE4" t="n">
-        <v>154928.9814163203</v>
+        <v>188986.8712459105</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.416603012530036e-06</v>
+        <v>6.525004512994594e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.256944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>140142.7768741802</v>
+        <v>170950.2294989938</v>
       </c>
     </row>
     <row r="5">
@@ -33121,28 +33121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.6721050658703</v>
+        <v>132.775546768183</v>
       </c>
       <c r="AB5" t="n">
-        <v>136.3757713740016</v>
+        <v>181.6693607318597</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.3602591587007</v>
+        <v>164.3310919182111</v>
       </c>
       <c r="AD5" t="n">
-        <v>99672.1050658703</v>
+        <v>132775.546768183</v>
       </c>
       <c r="AE5" t="n">
-        <v>136375.7713740016</v>
+        <v>181669.3607318597</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.665539624408705e-06</v>
+        <v>6.892778684988243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.869212962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>123360.2591587007</v>
+        <v>164331.0919182111</v>
       </c>
     </row>
     <row r="6">
@@ -33227,28 +33227,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>98.32902052573912</v>
+        <v>131.4324622280518</v>
       </c>
       <c r="AB6" t="n">
-        <v>134.538103853487</v>
+        <v>179.8316932113451</v>
       </c>
       <c r="AC6" t="n">
-        <v>121.6979760471609</v>
+        <v>162.6688088066713</v>
       </c>
       <c r="AD6" t="n">
-        <v>98329.02052573912</v>
+        <v>131432.4622280518</v>
       </c>
       <c r="AE6" t="n">
-        <v>134538.103853487</v>
+        <v>179831.6932113451</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.716999818542057e-06</v>
+        <v>6.968804988010518e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.793981481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>121697.9760471609</v>
+        <v>162668.8088066713</v>
       </c>
     </row>
     <row r="7">
@@ -33333,28 +33333,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>96.79007483429032</v>
+        <v>129.893516536603</v>
       </c>
       <c r="AB7" t="n">
-        <v>132.4324504649556</v>
+        <v>177.7260398228137</v>
       </c>
       <c r="AC7" t="n">
-        <v>119.7932832627271</v>
+        <v>160.7641160222376</v>
       </c>
       <c r="AD7" t="n">
-        <v>96790.07483429032</v>
+        <v>129893.516536603</v>
       </c>
       <c r="AE7" t="n">
-        <v>132432.4504649556</v>
+        <v>177726.0398228137</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.784911764728805e-06</v>
+        <v>7.069136793721291e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>119793.2832627271</v>
+        <v>160764.1160222376</v>
       </c>
     </row>
     <row r="8">
@@ -33439,28 +33439,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>95.1035199145622</v>
+        <v>128.2069616168749</v>
       </c>
       <c r="AB8" t="n">
-        <v>130.124831618233</v>
+        <v>175.4184209760911</v>
       </c>
       <c r="AC8" t="n">
-        <v>117.7059003199716</v>
+        <v>158.676733079482</v>
       </c>
       <c r="AD8" t="n">
-        <v>95103.5199145622</v>
+        <v>128206.9616168749</v>
       </c>
       <c r="AE8" t="n">
-        <v>130124.831618233</v>
+        <v>175418.4209760911</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.837812179580636e-06</v>
+        <v>7.147290851187677e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.626157407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>117705.9003199716</v>
+        <v>158676.733079482</v>
       </c>
     </row>
     <row r="9">
@@ -33545,28 +33545,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>94.19003754015404</v>
+        <v>127.2934792424667</v>
       </c>
       <c r="AB9" t="n">
-        <v>128.8749647335702</v>
+        <v>174.1685540914283</v>
       </c>
       <c r="AC9" t="n">
-        <v>116.5753189765814</v>
+        <v>157.5461517360919</v>
       </c>
       <c r="AD9" t="n">
-        <v>94190.03754015404</v>
+        <v>127293.4792424667</v>
       </c>
       <c r="AE9" t="n">
-        <v>128874.9647335702</v>
+        <v>174168.5540914283</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.848281476341888e-06</v>
+        <v>7.162757989262176e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>116575.3189765814</v>
+        <v>157546.1517360919</v>
       </c>
     </row>
     <row r="10">
@@ -33651,28 +33651,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>93.4769693685143</v>
+        <v>118.4538971407492</v>
       </c>
       <c r="AB10" t="n">
-        <v>127.8993134027857</v>
+        <v>162.0738478850251</v>
       </c>
       <c r="AC10" t="n">
-        <v>115.6927824394715</v>
+        <v>146.6057473149972</v>
       </c>
       <c r="AD10" t="n">
-        <v>93476.9693685143</v>
+        <v>118453.8971407492</v>
       </c>
       <c r="AE10" t="n">
-        <v>127899.3134027857</v>
+        <v>162073.8478850251</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.862462111108452e-06</v>
+        <v>7.183708186865731e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.591435185185186</v>
       </c>
       <c r="AH10" t="n">
-        <v>115692.7824394715</v>
+        <v>146605.7473149972</v>
       </c>
     </row>
     <row r="11">
@@ -33757,28 +33757,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>93.64577857842221</v>
+        <v>118.6227063506571</v>
       </c>
       <c r="AB11" t="n">
-        <v>128.1302856111183</v>
+        <v>162.3048200933578</v>
       </c>
       <c r="AC11" t="n">
-        <v>115.9017109844124</v>
+        <v>146.8146758599381</v>
       </c>
       <c r="AD11" t="n">
-        <v>93645.77857842221</v>
+        <v>118622.7063506571</v>
       </c>
       <c r="AE11" t="n">
-        <v>128130.2856111183</v>
+        <v>162304.8200933578</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.85985863519428e-06</v>
+        <v>7.179861861524454e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>115901.7109844124</v>
+        <v>146814.6758599381</v>
       </c>
     </row>
   </sheetData>
@@ -34054,28 +34054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.5687248975406</v>
+        <v>245.6572810872082</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.2175131710234</v>
+        <v>336.1191296177205</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.8100873526852</v>
+        <v>304.0403916332667</v>
       </c>
       <c r="AD2" t="n">
-        <v>194568.7248975406</v>
+        <v>245657.2810872082</v>
       </c>
       <c r="AE2" t="n">
-        <v>266217.5131710234</v>
+        <v>336119.1296177206</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.882709038437152e-06</v>
+        <v>4.186180746691565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.71759259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>240810.0873526852</v>
+        <v>304040.3916332667</v>
       </c>
     </row>
     <row r="3">
@@ -34160,28 +34160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.6869960488673</v>
+        <v>178.7176760656728</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.9671311337384</v>
+        <v>244.5294088603523</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.0734259870041</v>
+        <v>221.1918652779721</v>
       </c>
       <c r="AD3" t="n">
-        <v>144686.9960488673</v>
+        <v>178717.6760656728</v>
       </c>
       <c r="AE3" t="n">
-        <v>197967.1311337384</v>
+        <v>244529.4088603523</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.674099543091706e-06</v>
+        <v>5.335413516813761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.408564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>179073.4259870041</v>
+        <v>221191.8652779721</v>
       </c>
     </row>
     <row r="4">
@@ -34266,28 +34266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.7551367613942</v>
+        <v>157.8710681242203</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.327237808174</v>
+        <v>216.0061601874372</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.1668838840798</v>
+        <v>195.3908354257599</v>
       </c>
       <c r="AD4" t="n">
-        <v>123755.1367613942</v>
+        <v>157871.0681242203</v>
       </c>
       <c r="AE4" t="n">
-        <v>169327.237808174</v>
+        <v>216006.1601874373</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.103423287118186e-06</v>
+        <v>5.95886415556277e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.528935185185186</v>
       </c>
       <c r="AH4" t="n">
-        <v>153166.8838840798</v>
+        <v>195390.83542576</v>
       </c>
     </row>
     <row r="5">
@@ -34372,28 +34372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.2157052225002</v>
+        <v>145.8027432531709</v>
       </c>
       <c r="AB5" t="n">
-        <v>164.4844314279627</v>
+        <v>199.4937456819584</v>
       </c>
       <c r="AC5" t="n">
-        <v>148.7862681478728</v>
+        <v>180.4543425853595</v>
       </c>
       <c r="AD5" t="n">
-        <v>120215.7052225002</v>
+        <v>145802.7432531709</v>
       </c>
       <c r="AE5" t="n">
-        <v>164484.4314279627</v>
+        <v>199493.7456819584</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.258060970376263e-06</v>
+        <v>6.183424207838772e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.256944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>148786.2681478728</v>
+        <v>180454.3425853595</v>
       </c>
     </row>
     <row r="6">
@@ -34478,28 +34478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.2904251087759</v>
+        <v>143.8774631394465</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.8501782390024</v>
+        <v>196.8594924929981</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.4034243860684</v>
+        <v>178.0714988235551</v>
       </c>
       <c r="AD6" t="n">
-        <v>118290.4251087759</v>
+        <v>143877.4631394465</v>
       </c>
       <c r="AE6" t="n">
-        <v>161850.1782390024</v>
+        <v>196859.4924929981</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.334552444352383e-06</v>
+        <v>6.294502756306672e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.123842592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>146403.4243860684</v>
+        <v>178071.4988235551</v>
       </c>
     </row>
     <row r="7">
@@ -34584,28 +34584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>106.5294544457818</v>
+        <v>140.5600449540363</v>
       </c>
       <c r="AB7" t="n">
-        <v>145.7582993204953</v>
+        <v>192.3204545775609</v>
       </c>
       <c r="AC7" t="n">
-        <v>131.8473318064447</v>
+        <v>173.9656603161861</v>
       </c>
       <c r="AD7" t="n">
-        <v>106529.4544457818</v>
+        <v>140560.0449540363</v>
       </c>
       <c r="AE7" t="n">
-        <v>145758.2993204953</v>
+        <v>192320.4545775609</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.471094796362795e-06</v>
+        <v>6.492785329217274e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.909722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>131847.3318064447</v>
+        <v>173965.6603161861</v>
       </c>
     </row>
     <row r="8">
@@ -34690,28 +34690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>105.6854927745549</v>
+        <v>139.7160832828094</v>
       </c>
       <c r="AB8" t="n">
-        <v>144.6035537289621</v>
+        <v>191.1657089860276</v>
       </c>
       <c r="AC8" t="n">
-        <v>130.8027935134714</v>
+        <v>172.9211220232128</v>
       </c>
       <c r="AD8" t="n">
-        <v>105685.4927745549</v>
+        <v>139716.0832828094</v>
       </c>
       <c r="AE8" t="n">
-        <v>144603.5537289621</v>
+        <v>191165.7089860276</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.495061769018257e-06</v>
+        <v>6.52758942430596e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.875000000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>130802.7935134714</v>
+        <v>172921.1220232128</v>
       </c>
     </row>
     <row r="9">
@@ -34796,28 +34796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>104.7747918327865</v>
+        <v>138.8053823410409</v>
       </c>
       <c r="AB9" t="n">
-        <v>143.3574925231452</v>
+        <v>189.9196477802108</v>
       </c>
       <c r="AC9" t="n">
-        <v>129.6756546402794</v>
+        <v>171.7939831500208</v>
       </c>
       <c r="AD9" t="n">
-        <v>104774.7918327865</v>
+        <v>138805.3823410409</v>
       </c>
       <c r="AE9" t="n">
-        <v>143357.4925231452</v>
+        <v>189919.6477802108</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.517961170508666e-06</v>
+        <v>6.560843225626778e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.834490740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>129675.6546402794</v>
+        <v>171793.9831500208</v>
       </c>
     </row>
     <row r="10">
@@ -34902,28 +34902,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>103.285103640355</v>
+        <v>137.3156941486095</v>
       </c>
       <c r="AB10" t="n">
-        <v>141.3192354178568</v>
+        <v>187.8813906749224</v>
       </c>
       <c r="AC10" t="n">
-        <v>127.8319259324073</v>
+        <v>169.9502544421486</v>
       </c>
       <c r="AD10" t="n">
-        <v>103285.103640355</v>
+        <v>137315.6941486095</v>
       </c>
       <c r="AE10" t="n">
-        <v>141319.2354178568</v>
+        <v>187881.3906749224</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.565841737261339e-06</v>
+        <v>6.630373901115756e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.765046296296297</v>
       </c>
       <c r="AH10" t="n">
-        <v>127831.9259324073</v>
+        <v>169950.2544421486</v>
       </c>
     </row>
     <row r="11">
@@ -35008,28 +35008,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>102.2405472779473</v>
+        <v>136.2711377862018</v>
       </c>
       <c r="AB11" t="n">
-        <v>139.8900273202369</v>
+        <v>186.4521825773024</v>
       </c>
       <c r="AC11" t="n">
-        <v>126.5391194497176</v>
+        <v>168.657447959459</v>
       </c>
       <c r="AD11" t="n">
-        <v>102240.5472779473</v>
+        <v>136271.1377862018</v>
       </c>
       <c r="AE11" t="n">
-        <v>139890.0273202369</v>
+        <v>186452.1825773024</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.59904320049452e-06</v>
+        <v>6.67858803729652e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH11" t="n">
-        <v>126539.1194497176</v>
+        <v>168657.447959459</v>
       </c>
     </row>
     <row r="12">
@@ -35114,28 +35114,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>101.5637083225692</v>
+        <v>135.5942988308237</v>
       </c>
       <c r="AB12" t="n">
-        <v>138.9639464014617</v>
+        <v>185.5261016585273</v>
       </c>
       <c r="AC12" t="n">
-        <v>125.7014223940673</v>
+        <v>167.8197509038086</v>
       </c>
       <c r="AD12" t="n">
-        <v>101563.7083225692</v>
+        <v>135594.2988308237</v>
       </c>
       <c r="AE12" t="n">
-        <v>138963.9464014617</v>
+        <v>185526.1016585273</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.58895465298476e-06</v>
+        <v>6.663937761190146e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.730324074074075</v>
       </c>
       <c r="AH12" t="n">
-        <v>125701.4223940673</v>
+        <v>167819.7509038086</v>
       </c>
     </row>
     <row r="13">
@@ -35220,28 +35220,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>100.3985194004387</v>
+        <v>134.4291099086932</v>
       </c>
       <c r="AB13" t="n">
-        <v>137.3696835136963</v>
+        <v>183.9318387707618</v>
       </c>
       <c r="AC13" t="n">
-        <v>124.2593137187476</v>
+        <v>166.377642228489</v>
       </c>
       <c r="AD13" t="n">
-        <v>100398.5194004387</v>
+        <v>134429.1099086932</v>
       </c>
       <c r="AE13" t="n">
-        <v>137369.6835136962</v>
+        <v>183931.8387707618</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.620981787936381e-06</v>
+        <v>6.710446574226253e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.684027777777779</v>
       </c>
       <c r="AH13" t="n">
-        <v>124259.3137187476</v>
+        <v>166377.642228489</v>
       </c>
     </row>
     <row r="14">
@@ -35326,28 +35326,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>99.99093443251684</v>
+        <v>134.0215249407713</v>
       </c>
       <c r="AB14" t="n">
-        <v>136.8120077792061</v>
+        <v>183.3741630362718</v>
       </c>
       <c r="AC14" t="n">
-        <v>123.7548617736543</v>
+        <v>165.8731902833957</v>
       </c>
       <c r="AD14" t="n">
-        <v>99990.93443251683</v>
+        <v>134021.5249407713</v>
       </c>
       <c r="AE14" t="n">
-        <v>136812.0077792061</v>
+        <v>183374.1630362718</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.61799258867423e-06</v>
+        <v>6.706105751676217e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.689814814814816</v>
       </c>
       <c r="AH14" t="n">
-        <v>123754.8617736543</v>
+        <v>165873.1902833957</v>
       </c>
     </row>
     <row r="15">
@@ -35432,28 +35432,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>99.67576293419458</v>
+        <v>133.7063534424491</v>
       </c>
       <c r="AB15" t="n">
-        <v>136.3807762308167</v>
+        <v>182.9429314878823</v>
       </c>
       <c r="AC15" t="n">
-        <v>123.3647863590057</v>
+        <v>165.4831148687471</v>
       </c>
       <c r="AD15" t="n">
-        <v>99675.76293419459</v>
+        <v>133706.3534424491</v>
       </c>
       <c r="AE15" t="n">
-        <v>136380.7762308167</v>
+        <v>182942.9314878823</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.645215653383107e-06</v>
+        <v>6.745638242756908e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.649305555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>123364.7863590057</v>
+        <v>165483.1148687471</v>
       </c>
     </row>
   </sheetData>
@@ -35729,28 +35729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.0606719775958</v>
+        <v>95.40775339692988</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.3330787259583</v>
+        <v>130.5410972906422</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.66199191424744</v>
+        <v>118.0824381808387</v>
       </c>
       <c r="AD2" t="n">
-        <v>74060.6719775958</v>
+        <v>95407.75339692988</v>
       </c>
       <c r="AE2" t="n">
-        <v>101333.0787259583</v>
+        <v>130541.0972906422</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.620195557592379e-06</v>
+        <v>9.368531148640454e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.060185185185184</v>
       </c>
       <c r="AH2" t="n">
-        <v>91661.99191424744</v>
+        <v>118082.4381808387</v>
       </c>
     </row>
   </sheetData>
@@ -36026,28 +36026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.6964441650157</v>
+        <v>150.3813567222582</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.4057114240459</v>
+        <v>205.7584066245307</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.9059382636273</v>
+        <v>186.1211130800816</v>
       </c>
       <c r="AD2" t="n">
-        <v>118696.4441650157</v>
+        <v>150381.3567222582</v>
       </c>
       <c r="AE2" t="n">
-        <v>162405.7114240459</v>
+        <v>205758.4066245308</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.219619678105366e-06</v>
+        <v>6.421867129256346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.061342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>146905.9382636274</v>
+        <v>186121.1130800816</v>
       </c>
     </row>
     <row r="3">
@@ -36132,28 +36132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.49022368083801</v>
+        <v>123.1750467295295</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.1809603038746</v>
+        <v>168.5335330348111</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.233865145087</v>
+        <v>152.4489291803147</v>
       </c>
       <c r="AD3" t="n">
-        <v>91490.22368083801</v>
+        <v>123175.0467295295</v>
       </c>
       <c r="AE3" t="n">
-        <v>125180.9603038746</v>
+        <v>168533.5330348111</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.870343032619323e-06</v>
+        <v>7.412207311400187e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.984953703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>113233.865145087</v>
+        <v>152448.9291803147</v>
       </c>
     </row>
     <row r="4">
@@ -36238,28 +36238,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.45304633828043</v>
+        <v>119.1378693869719</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.6571161560959</v>
+        <v>163.0096888870324</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.2372089300066</v>
+        <v>147.4522729652343</v>
       </c>
       <c r="AD4" t="n">
-        <v>87453.04633828043</v>
+        <v>119137.8693869719</v>
       </c>
       <c r="AE4" t="n">
-        <v>119657.1161560959</v>
+        <v>163009.6888870324</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.115429821395968e-06</v>
+        <v>7.785206518135906e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.649305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>108237.2089300066</v>
+        <v>147452.2729652343</v>
       </c>
     </row>
     <row r="5">
@@ -36344,28 +36344,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.54274446847907</v>
+        <v>109.455708250498</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.0433568612645</v>
+        <v>149.7621288733127</v>
       </c>
       <c r="AC5" t="n">
-        <v>105.8729031538388</v>
+        <v>135.4690414861525</v>
       </c>
       <c r="AD5" t="n">
-        <v>85542.74446847907</v>
+        <v>109455.708250498</v>
       </c>
       <c r="AE5" t="n">
-        <v>117043.3568612645</v>
+        <v>149762.1288733127</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.191089859092188e-06</v>
+        <v>7.900354030505508e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.550925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>105872.9031538389</v>
+        <v>135469.0414861525</v>
       </c>
     </row>
     <row r="6">
@@ -36450,28 +36450,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.41792555661702</v>
+        <v>108.1602971380437</v>
       </c>
       <c r="AB6" t="n">
-        <v>115.5043300025474</v>
+        <v>147.9896902397488</v>
       </c>
       <c r="AC6" t="n">
-        <v>104.4807588584795</v>
+        <v>133.8657619081421</v>
       </c>
       <c r="AD6" t="n">
-        <v>84417.92555661702</v>
+        <v>108160.2971380437</v>
       </c>
       <c r="AE6" t="n">
-        <v>115504.3300025474</v>
+        <v>147989.6902397488</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.244116552178429e-06</v>
+        <v>7.98105570584147e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.487268518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>104480.7588584795</v>
+        <v>133865.7619081421</v>
       </c>
     </row>
     <row r="7">
@@ -36556,28 +36556,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>84.69194582412617</v>
+        <v>108.4343174055529</v>
       </c>
       <c r="AB7" t="n">
-        <v>115.8792566214743</v>
+        <v>148.3646168586756</v>
       </c>
       <c r="AC7" t="n">
-        <v>104.8199030071089</v>
+        <v>134.2049060567716</v>
       </c>
       <c r="AD7" t="n">
-        <v>84691.94582412616</v>
+        <v>108434.3174055529</v>
       </c>
       <c r="AE7" t="n">
-        <v>115879.2566214743</v>
+        <v>148364.6168586756</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.236709275760617e-06</v>
+        <v>7.969782522812276e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.498842592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>104819.9030071089</v>
+        <v>134204.9060567715</v>
       </c>
     </row>
   </sheetData>
@@ -36853,28 +36853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.0755456934202</v>
+        <v>176.821310604004</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.1845648470446</v>
+        <v>241.9347179739587</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.415371289773</v>
+        <v>218.8448080481035</v>
       </c>
       <c r="AD2" t="n">
-        <v>136075.5456934202</v>
+        <v>176821.310604004</v>
       </c>
       <c r="AE2" t="n">
-        <v>186184.5648470446</v>
+        <v>241934.7179739587</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.693046888754414e-06</v>
+        <v>5.513389193743748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.871527777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>168415.371289773</v>
+        <v>218844.8080481035</v>
       </c>
     </row>
     <row r="3">
@@ -36959,28 +36959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.7799523008499</v>
+        <v>143.274244712382</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.5740180045275</v>
+        <v>196.03414242897</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.1080064616872</v>
+        <v>177.3249190112515</v>
       </c>
       <c r="AD3" t="n">
-        <v>110779.9523008499</v>
+        <v>143274.244712382</v>
       </c>
       <c r="AE3" t="n">
-        <v>151574.0180045275</v>
+        <v>196034.14242897</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.427433894970521e-06</v>
+        <v>6.6097634088741e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>137108.0064616872</v>
+        <v>177324.9190112515</v>
       </c>
     </row>
     <row r="4">
@@ -37065,28 +37065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.69882302658382</v>
+        <v>130.2783667841365</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.6758398327918</v>
+        <v>178.2526089098834</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.9180052944053</v>
+        <v>161.2404300946818</v>
       </c>
       <c r="AD4" t="n">
-        <v>97698.82302658382</v>
+        <v>130278.3667841365</v>
       </c>
       <c r="AE4" t="n">
-        <v>133675.8398327917</v>
+        <v>178252.6089098834</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.684907998344476e-06</v>
+        <v>6.994149251234636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.99074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>120918.0052944053</v>
+        <v>161240.4300946819</v>
       </c>
     </row>
     <row r="5">
@@ -37171,28 +37171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.20188924596617</v>
+        <v>127.7814330035188</v>
       </c>
       <c r="AB5" t="n">
-        <v>130.2594248772085</v>
+        <v>174.8361939543001</v>
       </c>
       <c r="AC5" t="n">
-        <v>117.8276481872133</v>
+        <v>158.1500729874898</v>
       </c>
       <c r="AD5" t="n">
-        <v>95201.88924596617</v>
+        <v>127781.4330035188</v>
       </c>
       <c r="AE5" t="n">
-        <v>130259.4248772085</v>
+        <v>174836.1939543001</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.804560725214676e-06</v>
+        <v>7.172780086747973e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.81712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>117827.6481872133</v>
+        <v>158150.0729874898</v>
       </c>
     </row>
     <row r="6">
@@ -37277,28 +37277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>92.98709060223945</v>
+        <v>125.5666343597921</v>
       </c>
       <c r="AB6" t="n">
-        <v>127.2290396628429</v>
+        <v>171.8058087399346</v>
       </c>
       <c r="AC6" t="n">
-        <v>115.0864786845335</v>
+        <v>155.40890348481</v>
       </c>
       <c r="AD6" t="n">
-        <v>92987.09060223945</v>
+        <v>125566.6343597921</v>
       </c>
       <c r="AE6" t="n">
-        <v>127229.0396628429</v>
+        <v>171805.8087399346</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.908252208481567e-06</v>
+        <v>7.32758221099605e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.672453703703703</v>
       </c>
       <c r="AH6" t="n">
-        <v>115086.4786845335</v>
+        <v>155408.90348481</v>
       </c>
     </row>
     <row r="7">
@@ -37383,28 +37383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>91.49856683915861</v>
+        <v>124.0781105967113</v>
       </c>
       <c r="AB7" t="n">
-        <v>125.192375781163</v>
+        <v>169.7691448582547</v>
       </c>
       <c r="AC7" t="n">
-        <v>113.2441911452447</v>
+        <v>153.5666159455213</v>
       </c>
       <c r="AD7" t="n">
-        <v>91498.56683915861</v>
+        <v>124078.1105967113</v>
       </c>
       <c r="AE7" t="n">
-        <v>125192.375781163</v>
+        <v>169769.1448582547</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.949117520118409e-06</v>
+        <v>7.388590471753209e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.62037037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>113244.1911452447</v>
+        <v>153566.6159455213</v>
       </c>
     </row>
     <row r="8">
@@ -37489,28 +37489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>89.99408959433157</v>
+        <v>114.5780939079964</v>
       </c>
       <c r="AB8" t="n">
-        <v>123.13388364194</v>
+        <v>156.7708029136046</v>
       </c>
       <c r="AC8" t="n">
-        <v>111.3821586066766</v>
+        <v>141.808817512777</v>
       </c>
       <c r="AD8" t="n">
-        <v>89994.08959433157</v>
+        <v>114578.0939079964</v>
       </c>
       <c r="AE8" t="n">
-        <v>123133.88364194</v>
+        <v>156770.8029136046</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.007019478296373e-06</v>
+        <v>7.475032924321867e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.539351851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>111382.1586066766</v>
+        <v>141808.817512777</v>
       </c>
     </row>
     <row r="9">
@@ -37595,28 +37595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>90.18096077712856</v>
+        <v>114.7649650907934</v>
       </c>
       <c r="AB9" t="n">
-        <v>123.3895690384175</v>
+        <v>157.0264883100821</v>
       </c>
       <c r="AC9" t="n">
-        <v>111.6134417477711</v>
+        <v>142.0401006538714</v>
       </c>
       <c r="AD9" t="n">
-        <v>90180.96077712857</v>
+        <v>114764.9650907934</v>
       </c>
       <c r="AE9" t="n">
-        <v>123389.5690384175</v>
+        <v>157026.4883100821</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.00220846515353e-06</v>
+        <v>7.467850511351841e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.550925925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>111613.4417477711</v>
+        <v>142040.1006538714</v>
       </c>
     </row>
   </sheetData>
